--- a/SampleProject/seleniumTraining.xlsx
+++ b/SampleProject/seleniumTraining.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Hello World</t>
   </si>
@@ -174,10 +174,64 @@
     <t>Hours</t>
   </si>
   <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>1) Create a class 'Employee' defining the below fields. Id of the employee should be automatically generated, i.e. first employee should have ID = 1, second employee will have ID = 2 and so on. An instance of Employee should be created only and only if name, age as well as gender is provided while instantiating.
+int id,
+string name,
+int age,
+enum gender
+2) Create 8 employees (5 male, 3 female) and add those in a List "allEmployees". Now iterate the list and print all the details.
+3) Create another list of employees "onlyMales" and add all the male employees from previous list "allEmployees".</t>
+  </si>
+  <si>
+    <t>Nunit and its attributes</t>
+  </si>
+  <si>
+    <t>Launch different browsers and URL navigation</t>
+  </si>
+  <si>
+    <t>Write a test for the below flow:
+1) Open chrome browser, maximize it, navigate to https://www.phptravels.net
+2) Search for city London, and select correct value from suggestions
+3) Select default Check-in and Check-out date
+4) Make the selection as 3 Adults and 1 Child
+5) Click on Search button</t>
+  </si>
+  <si>
+    <t>1) Launch Chrome, Firefox and Internet Explorer, maximize all browsers and navigate each browser to walmart website. Use NUnit 'Test' attribute, and run the three tests from Test Explorer.
+2) Create Xpaths for the below items on https://www.walmart.com
+a) Search textfield
+b) The three horizontal line element on top left corner
+c) Grocery, Account on top right corner
+d) Feedback
+e) Email textfield in the bottom
+f) Signup button in the bottom
+g) Navigate to Cart -&gt; Sign In button
+3) Create XPaths for the below items on https://www.phptravels.net/
+a) Search by hotel or city name text field
+b) Check In
+c) Check Out
+d) Date Picker - next month and previous month
+e) Adult/child selection
+f) Increasing/decreasing Adults
+g) Increasing/decreasing Child
+h) Search button
+i) After searching, create xpath for Details button of first hotel</t>
+  </si>
+  <si>
+    <t>In the existing flow, remove Implicit waits and implement Explicit Waits. Try to scroll the element into view before performing any operation.</t>
+  </si>
+  <si>
     <t>Final Assignment:
 https://www.phptravels.net/
+Make changes in the flow as per below requirements:
 Book Hotel:
-1) Search for city London (UK)
+1) Search for city London (UK), and select correct value from suggestions
 2) Select check in date as of today
 3) Select check out date as of 3 days from today
 4) Make the selection as 3 Adults and 1 Child
@@ -192,28 +246,8 @@
 13) Check all available Extras
 14) Enter coupon code as 'test' and hit Apply Coupon
 15) Error message will pop, click on OK button
-16) Confirm this booking</t>
-  </si>
-  <si>
-    <t>Inheritance</t>
-  </si>
-  <si>
-    <t>Lists</t>
-  </si>
-  <si>
-    <t>1) Create a class 'Employee' defining the below fields. Id of the employee should be automatically generated, i.e. first employee should have ID = 1, second employee will have ID = 2 and so on. An instance of Employee should be created only and only if name, age as well as gender is provided while instantiating.
-int id,
-string name,
-int age,
-enum gender
-2) Create 8 employees (5 male, 3 female) and add those in a List "allEmployees". Now iterate the list and print all the details.
-3) Create another list of employees "onlyMales" and add all the male employees from previous list "allEmployees".</t>
-  </si>
-  <si>
-    <t>Launch different browsers</t>
-  </si>
-  <si>
-    <t>Nunit and its attributes</t>
+16) Confirm this booking
+17) Print the Invoice Number and Booking Code on console</t>
   </si>
 </sst>
 </file>
@@ -291,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -455,19 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -720,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,9 +750,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,21 +773,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -778,121 +787,130 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,314 +1223,336 @@
     <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="64.28515625" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="69.7109375" style="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="47" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="35">
         <v>1</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="35">
         <v>1.5</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="48" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="24" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="24" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="24" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="37" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="61">
+      <c r="A7" s="42"/>
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="32">
         <v>2</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="39" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="43" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="58">
+      <c r="A11" s="42"/>
+      <c r="B11" s="35">
         <v>3</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="35">
         <v>2</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="47" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="56"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="56"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="57"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="38">
+        <v>4</v>
+      </c>
+      <c r="C15" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="19" t="s">
+      <c r="E15" s="58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="59"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="59"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="60"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="35">
         <v>5</v>
       </c>
-      <c r="E14" s="46"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="64">
-        <v>4</v>
-      </c>
-      <c r="C15" s="64">
+      <c r="C19" s="35">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="62"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="62"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="32">
+        <v>6</v>
+      </c>
+      <c r="C23" s="32">
         <v>1.5</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="48"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="48"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="52"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="58">
-        <v>5</v>
-      </c>
-      <c r="C19" s="58">
-        <v>2</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="56"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="61">
-        <v>6</v>
-      </c>
-      <c r="C23" s="61">
+      <c r="D23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="66"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="35">
+        <v>7</v>
+      </c>
+      <c r="C26" s="35">
         <v>1.5</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="53"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="54"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="55"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="58">
-        <v>7</v>
-      </c>
-      <c r="C26" s="58">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="55" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="24" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="67"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="25" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="30" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="E30" s="67" t="s">
-        <v>44</v>
-      </c>
+      <c r="E28" s="68"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A28"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C11:C14"/>
@@ -1520,18 +1560,6 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A28"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1551,68 +1579,68 @@
     <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="14.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>1995</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>1996</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>2000</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>2100</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1633,106 +1661,106 @@
     <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="14.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>1995</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>1996</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>2000</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="46" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>2100</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SampleProject/seleniumTraining.xlsx
+++ b/SampleProject/seleniumTraining.xlsx
@@ -146,23 +146,6 @@
 4) Accept an year from console and tell whether it is a LEAP year or not.
 If it is leap year, console should print message like "Year 2000 is a LEAP year."
 If it is NOT a leap year, console should print message like "Year 2001 is NOT a leap year."</t>
-  </si>
-  <si>
-    <t>1) Print a list of numbers starting from 10 to 50 by using a
-a) For loop
-b) While loop
-c) Do-While loop
-2) Print all the multiples of 5 between 32 and 98.
-3) Print all the numbers between 13 and 319 which are multiples of either 3, 4 or 7 but are NOT multiples of 12 or 17.
-4) Using two for loops, print this pattern:
-*
-**
-***
-****
-*****
-5) Accept an alphabet from console and print whether it is a Vowel or Consonent.
-If it is a vowel, console should print message like "E is a vowel."
-If it is a consonent, console should print message like "G is a consonent."</t>
   </si>
   <si>
     <t>Class and Constructor</t>
@@ -248,6 +231,23 @@
 15) Error message will pop, click on OK button
 16) Confirm this booking
 17) Print the Invoice Number and Booking Code on console</t>
+  </si>
+  <si>
+    <t>1) Print a list of numbers starting from 10 to 50 by using a
+a) For loop
+b) While loop
+c) Do-While loop
+2) Print all the multiples of 5 between 32 and 98.
+3) Print all the numbers between 13 and 92 which are multiples of either 3, 4 or 7 but are NOT multiples of 6 or 8.
+4) Using two for loops, print this pattern:
+*
+**
+***
+****
+*****
+5) Accept an alphabet from console and print whether it is a Vowel or Consonent.
+If it is a vowel, console should print message like "E is a vowel."
+If it is a consonent, console should print message like "G is a consonent."</t>
   </si>
 </sst>
 </file>
@@ -800,6 +800,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,14 +869,35 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,89 +908,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,16 +1214,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="64.28515625" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="63" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="33" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1234,309 +1234,316 @@
         <v>9</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="49">
         <v>1</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="49">
         <v>1.5</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="32">
+      <c r="A7" s="38"/>
+      <c r="B7" s="52">
         <v>2</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="52">
         <v>2</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>40</v>
+      <c r="E7" s="42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="44"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="53"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="35">
+      <c r="A11" s="38"/>
+      <c r="B11" s="49">
         <v>3</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="49">
         <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="56"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="56"/>
+        <v>43</v>
+      </c>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="65">
         <v>4</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="65">
         <v>1.5</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="59"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="59"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="60"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="35">
+      <c r="A19" s="38"/>
+      <c r="B19" s="49">
         <v>5</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="49">
         <v>2</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="61" t="s">
-        <v>49</v>
+      <c r="E19" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="62"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="62"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="62"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="32">
+      <c r="A23" s="38"/>
+      <c r="B23" s="52">
         <v>6</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="52">
         <v>1.5</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="64" t="s">
-        <v>51</v>
+      <c r="E23" s="60" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="35">
+      <c r="A26" s="38"/>
+      <c r="B26" s="49">
         <v>7</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="49">
         <v>1.5</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="55" t="s">
-        <v>52</v>
+      <c r="E26" s="46" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="67"/>
+      <c r="E27" s="63"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="64"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A28"/>
@@ -1553,13 +1560,6 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1740,7 @@
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="68" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SampleProject/seleniumTraining.xlsx
+++ b/SampleProject/seleniumTraining.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Hello World</t>
   </si>
@@ -248,6 +248,9 @@
 5) Accept an alphabet from console and print whether it is a Vowel or Consonent.
 If it is a vowel, console should print message like "E is a vowel."
 If it is a consonent, console should print message like "G is a consonent."</t>
+  </si>
+  <si>
+    <t>Not</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,6 +808,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1215,7 +1224,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1232,7 @@
     <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="78.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="33" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1244,293 +1253,293 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="51">
         <v>1</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="51">
         <v>1.5</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="52">
+      <c r="A7" s="40"/>
+      <c r="B7" s="54">
         <v>2</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="54">
         <v>2</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="49">
+      <c r="A11" s="40"/>
+      <c r="B11" s="51">
         <v>3</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="51">
         <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="67">
         <v>4</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="67">
         <v>1.5</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="57" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="56"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="49">
+      <c r="A19" s="40"/>
+      <c r="B19" s="51">
         <v>5</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="51">
         <v>2</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="60" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="59"/>
+      <c r="E20" s="61"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="59"/>
+      <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="52">
+      <c r="A23" s="40"/>
+      <c r="B23" s="54">
         <v>6</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="54">
         <v>1.5</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="61"/>
+      <c r="E24" s="63"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="64"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="49">
+      <c r="A26" s="40"/>
+      <c r="B26" s="51">
         <v>7</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="51">
         <v>1.5</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="63"/>
+      <c r="E27" s="65"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="64"/>
+      <c r="E28" s="66"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30"/>
@@ -1571,7 +1580,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1606,40 +1615,72 @@
       <c r="A2" s="11">
         <v>1995</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1996</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2100</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="12"/>
     </row>
   </sheetData>
@@ -1650,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1781,7 @@
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="70" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1760,7 +1801,67 @@
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="34">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="34">
+        <v>2400</v>
+      </c>
+      <c r="E11" s="35">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1996</v>
+      </c>
+      <c r="D12" s="34">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="35">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D13" s="34">
+        <v>3200</v>
+      </c>
+      <c r="E13" s="35">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2008</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SampleProject/seleniumTraining.xlsx
+++ b/SampleProject/seleniumTraining.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>Hello World</t>
   </si>
@@ -251,6 +251,42 @@
   </si>
   <si>
     <t>Not</t>
+  </si>
+  <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Lang1</t>
+  </si>
+  <si>
+    <t>Lang2</t>
+  </si>
+  <si>
+    <t>Lang3</t>
+  </si>
+  <si>
+    <t>allLang</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>Deutch.Click()</t>
+  </si>
+  <si>
+    <t>Deutch radio clicked</t>
+  </si>
+  <si>
+    <t>English.Click()</t>
+  </si>
+  <si>
+    <t>English radio button clicked</t>
+  </si>
+  <si>
+    <t>click</t>
   </si>
 </sst>
 </file>
@@ -290,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,8 +363,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -740,11 +788,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,7 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -794,11 +856,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,6 +873,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -860,24 +945,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -908,18 +975,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,327 +1305,320 @@
     <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="78.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="34">
         <v>1.5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="20" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="20" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="25" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="54">
+      <c r="A7" s="44"/>
+      <c r="B7" s="31">
         <v>2</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="31">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="48" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="26" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="51">
+      <c r="A11" s="44"/>
+      <c r="B11" s="34">
         <v>3</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="34">
         <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="52" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="31" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="50"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="37">
         <v>4</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="37">
         <v>1.5</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="28" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="58"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="29" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="59"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="51">
+      <c r="A19" s="44"/>
+      <c r="B19" s="34">
         <v>5</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="34">
         <v>2</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="14" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="61"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="14" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="15" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="61"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="54">
+      <c r="A23" s="44"/>
+      <c r="B23" s="31">
         <v>6</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="31">
         <v>1.5</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="60" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="63"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="64"/>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="51">
+      <c r="A26" s="44"/>
+      <c r="B26" s="34">
         <v>7</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="34">
         <v>1.5</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="52" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="20" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="63"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="21" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="66"/>
+      <c r="E28" s="64"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A28"/>
@@ -1569,6 +1635,13 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1781,7 +1854,7 @@
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="65" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1801,7 +1874,7 @@
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1821,18 +1894,18 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="34">
+      <c r="D10" s="29">
         <v>2000</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="30">
         <v>1900</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="34">
+      <c r="D11" s="29">
         <v>2400</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="30">
         <v>2100</v>
       </c>
     </row>
@@ -1840,10 +1913,10 @@
       <c r="A12" s="1">
         <v>1996</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="29">
         <v>2800</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="30">
         <v>2200</v>
       </c>
     </row>
@@ -1851,10 +1924,10 @@
       <c r="A13" s="1">
         <v>2004</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="29">
         <v>3200</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="30">
         <v>2300</v>
       </c>
     </row>
@@ -1874,12 +1947,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A5:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SampleProject/seleniumTraining.xlsx
+++ b/SampleProject/seleniumTraining.xlsx
@@ -11,13 +11,19 @@
     <sheet name="Leap Year Practice" sheetId="4" r:id="rId2"/>
     <sheet name="Leap Year" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="161">
   <si>
     <t>Hello World</t>
   </si>
@@ -71,9 +77,6 @@
   </si>
   <si>
     <t>Creating XPaths</t>
-  </si>
-  <si>
-    <t>Alerts and popups</t>
   </si>
   <si>
     <t>Variables, Data types and Casting</t>
@@ -288,12 +291,300 @@
   <si>
     <t>click</t>
   </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Google Homepage</t>
+  </si>
+  <si>
+    <t>Google Search Results Page</t>
+  </si>
+  <si>
+    <t>Search textfield</t>
+  </si>
+  <si>
+    <t>Search Button</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>etc.</t>
+  </si>
+  <si>
+    <t>NextPage</t>
+  </si>
+  <si>
+    <t>PreviousPage</t>
+  </si>
+  <si>
+    <t>ImagesTab</t>
+  </si>
+  <si>
+    <t>NewsTab</t>
+  </si>
+  <si>
+    <t>Wait Defined</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>30 seconds</t>
+  </si>
+  <si>
+    <t>wait1</t>
+  </si>
+  <si>
+    <t>10 seconds</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>wait2</t>
+  </si>
+  <si>
+    <t>15 seconds</t>
+  </si>
+  <si>
+    <t>60 seconds</t>
+  </si>
+  <si>
+    <t>wait3</t>
+  </si>
+  <si>
+    <t>Not Present</t>
+  </si>
+  <si>
+    <t>Present in DOM, but not visible on screen</t>
+  </si>
+  <si>
+    <t>Present in DOM and visible on screen</t>
+  </si>
+  <si>
+    <t>Present in DOM, visible on screen AND Element is clickable</t>
+  </si>
+  <si>
+    <t>Alerts, popups and iframes</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>/body</t>
+  </si>
+  <si>
+    <t>/head</t>
+  </si>
+  <si>
+    <t>/html</t>
+  </si>
+  <si>
+    <t>1 DOM</t>
+  </si>
+  <si>
+    <t>2nd DOM</t>
+  </si>
+  <si>
+    <t>1st DOM</t>
+  </si>
+  <si>
+    <t>DOM 1</t>
+  </si>
+  <si>
+    <t>DOM 2</t>
+  </si>
+  <si>
+    <t>DOM 3</t>
+  </si>
+  <si>
+    <t>iFrames</t>
+  </si>
+  <si>
+    <t>Enter some value</t>
+  </si>
+  <si>
+    <t>DOM 1 ==&gt; DOM 4</t>
+  </si>
+  <si>
+    <t>text1</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>text2</t>
+  </si>
+  <si>
+    <t>text3</t>
+  </si>
+  <si>
+    <t>driver.SwitchTo().Frame(web element for DOM2)</t>
+  </si>
+  <si>
+    <t>driver.SwitchTo().Frame(web element for DOM3)</t>
+  </si>
+  <si>
+    <t>Enter in text2</t>
+  </si>
+  <si>
+    <t>driver.SwitchTo().DefaultContent() === DOM 1</t>
+  </si>
+  <si>
+    <t>Enter in text3</t>
+  </si>
+  <si>
+    <t>DOM5</t>
+  </si>
+  <si>
+    <t>DOM4</t>
+  </si>
+  <si>
+    <t>DOM6</t>
+  </si>
+  <si>
+    <t>text4</t>
+  </si>
+  <si>
+    <t>text5</t>
+  </si>
+  <si>
+    <t>text6</t>
+  </si>
+  <si>
+    <t>text6:</t>
+  </si>
+  <si>
+    <t>Switch to DOM4</t>
+  </si>
+  <si>
+    <t>Switch to DOM5</t>
+  </si>
+  <si>
+    <t>Switch to DOM6</t>
+  </si>
+  <si>
+    <t>enter text6</t>
+  </si>
+  <si>
+    <t>Switch to default content == DOM1</t>
+  </si>
+  <si>
+    <t>enter text5</t>
+  </si>
+  <si>
+    <t>enter text4</t>
+  </si>
+  <si>
+    <t>Enter text4</t>
+  </si>
+  <si>
+    <t>Enter text5</t>
+  </si>
+  <si>
+    <t>Enter text6</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>organizationName</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Employee age</t>
+  </si>
+  <si>
+    <t>Employee gender</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CLASS VARIABLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +616,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +673,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -803,11 +1131,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,17 +1317,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,6 +1337,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,21 +1466,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,6 +1552,152 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6422571" y="1074964"/>
+          <a:ext cx="1510393" cy="1006929"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9144000" y="1061357"/>
+          <a:ext cx="163286" cy="3837214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>775608</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9579429" y="1047750"/>
+          <a:ext cx="2408464" cy="1102179"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1297,7 +1990,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,314 +1998,314 @@
     <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="78.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="51">
+        <v>1</v>
+      </c>
+      <c r="C2" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="34">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="48">
+        <v>2</v>
+      </c>
+      <c r="C7" s="48">
+        <v>2</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="66"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="130" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="73" t="s">
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="68"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="51">
+        <v>3</v>
+      </c>
+      <c r="C11" s="51">
         <v>2</v>
       </c>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="31">
-        <v>2</v>
-      </c>
-      <c r="C7" s="31">
-        <v>2</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="49"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="34">
-        <v>3</v>
-      </c>
-      <c r="C11" s="34">
-        <v>2</v>
-      </c>
       <c r="D11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="52" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="53"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="54"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="37">
+      <c r="A15" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="54">
         <v>4</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="54">
         <v>1.5</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E16" s="73"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="73"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="74"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="51">
+        <v>5</v>
+      </c>
+      <c r="C19" s="51">
+        <v>2</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="76"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="76"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="76"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="48">
+        <v>6</v>
+      </c>
+      <c r="C23" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="77" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="56"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="57"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="34">
-        <v>5</v>
-      </c>
-      <c r="C19" s="34">
-        <v>2</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="59"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="59"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="59"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="31">
-        <v>6</v>
-      </c>
-      <c r="C23" s="31">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="78"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="79"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="51">
+        <v>7</v>
+      </c>
+      <c r="C26" s="51">
         <v>1.5</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="60" t="s">
+      <c r="D26" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="69" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="61"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="62"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="34">
-        <v>7</v>
-      </c>
-      <c r="C26" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="63"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="64"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30"/>
@@ -1648,6 +2341,262 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:P35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="F13:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="126"/>
+      <c r="K4" s="127"/>
+    </row>
+    <row r="5" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="132" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="128"/>
+      <c r="K6" s="129"/>
+    </row>
+    <row r="11" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
+      <c r="L12" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="M12" s="96"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="98"/>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="99"/>
+      <c r="I14" s="101"/>
+      <c r="M14" s="99"/>
+      <c r="P14" s="101"/>
+    </row>
+    <row r="15" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="101"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
+    </row>
+    <row r="16" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="99"/>
+      <c r="G16" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="101"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="101"/>
+    </row>
+    <row r="17" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="99"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="101"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="101"/>
+    </row>
+    <row r="18" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="99"/>
+      <c r="G18" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="40">
+        <v>26</v>
+      </c>
+      <c r="I18" s="101"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="40">
+        <v>30</v>
+      </c>
+      <c r="P18" s="101"/>
+    </row>
+    <row r="19" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
+    </row>
+    <row r="20" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="99"/>
+      <c r="G20" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="101"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20" s="101"/>
+    </row>
+    <row r="21" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="104"/>
+    </row>
+    <row r="25" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I26" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="96"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="98"/>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J27" s="99"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="101"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J28" s="99"/>
+      <c r="M28" s="101"/>
+    </row>
+    <row r="29" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="101"/>
+    </row>
+    <row r="30" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="99"/>
+      <c r="K30" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="M30" s="101"/>
+    </row>
+    <row r="31" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="99"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="101"/>
+    </row>
+    <row r="32" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="99"/>
+      <c r="K32" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="40">
+        <v>32</v>
+      </c>
+      <c r="M32" s="101"/>
+    </row>
+    <row r="33" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="99"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="101"/>
+    </row>
+    <row r="34" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="99"/>
+      <c r="K34" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="L34" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="M34" s="101"/>
+    </row>
+    <row r="35" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="102"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="104"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
@@ -1666,22 +2615,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1689,16 +2638,16 @@
         <v>1995</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="12"/>
     </row>
@@ -1707,16 +2656,16 @@
         <v>1996</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -1725,16 +2674,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -1743,16 +2692,16 @@
         <v>2100</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -1780,22 +2729,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,19 +2752,19 @@
         <v>1995</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,19 +2772,19 @@
         <v>1996</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,19 +2792,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,49 +2812,49 @@
         <v>2100</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="82"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1500</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="29">
+      <c r="D10" s="22">
         <v>2000</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="23">
         <v>1900</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="29">
+      <c r="D11" s="22">
         <v>2400</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="23">
         <v>2100</v>
       </c>
     </row>
@@ -1913,10 +2862,10 @@
       <c r="A12" s="1">
         <v>1996</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="22">
         <v>2800</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="23">
         <v>2200</v>
       </c>
     </row>
@@ -1924,10 +2873,10 @@
       <c r="A13" s="1">
         <v>2004</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="22">
         <v>3200</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="23">
         <v>2300</v>
       </c>
     </row>
@@ -1960,61 +2909,3923 @@
   <sheetData>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="71" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="70" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="66" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:N23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="67" t="s">
-        <v>58</v>
-      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
+      <c r="M5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="J7" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+    </row>
+    <row r="21" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="94"/>
+    </row>
+    <row r="22" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="L23" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="F20:L21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F6:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="54.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="D11:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="99"/>
+      <c r="E6" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="101"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="101"/>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="99"/>
+      <c r="E7" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="101"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="101"/>
+    </row>
+    <row r="8" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="115"/>
+      <c r="N10" s="116"/>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="99"/>
+      <c r="E11" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="101"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="119"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="99"/>
+      <c r="E12" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="119"/>
+    </row>
+    <row r="13" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="119"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="118" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="119"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="119"/>
+    </row>
+    <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="120" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="104"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="101"/>
+    </row>
+    <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="103"/>
+      <c r="K22" s="104"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="45.28515625" customWidth="1"/>
+    <col min="12" max="12" width="64" customWidth="1"/>
+    <col min="15" max="15" width="62.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="99"/>
+      <c r="C7" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+      <c r="K7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="99"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
+      <c r="K8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="99"/>
+      <c r="C9" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
+      <c r="K9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
+      <c r="K10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="99"/>
+      <c r="C11" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="101"/>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="99"/>
+      <c r="C12" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="98"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="O17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="O19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="99"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="101"/>
+    </row>
+    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="102"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:BJ106"/>
+  <sheetViews>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AN31" sqref="AN31:AW57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="116"/>
+      <c r="J5" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="Q5" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="116"/>
+      <c r="X5" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y5" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="116"/>
+    </row>
+    <row r="6" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="117"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="119"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="119"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="119"/>
+      <c r="AF6" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG6" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH6" s="115"/>
+      <c r="AI6" s="115"/>
+      <c r="AJ6" s="116"/>
+      <c r="AM6" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN6" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="116"/>
+    </row>
+    <row r="7" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="117"/>
+      <c r="E7" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="119"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="119"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="U7" s="119"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA7" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB7" s="119"/>
+      <c r="AG7" s="117"/>
+      <c r="AH7" s="118"/>
+      <c r="AI7" s="118"/>
+      <c r="AJ7" s="119"/>
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="118"/>
+      <c r="AP7" s="118"/>
+      <c r="AQ7" s="119"/>
+    </row>
+    <row r="8" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="117"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="119"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="119"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="119"/>
+      <c r="AG8" s="117"/>
+      <c r="AH8" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI8" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ8" s="119"/>
+      <c r="AN8" s="117"/>
+      <c r="AO8" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP8" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ8" s="119"/>
+    </row>
+    <row r="9" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="117"/>
+      <c r="E9" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="105">
+        <v>26</v>
+      </c>
+      <c r="G9" s="119"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="105">
+        <v>25</v>
+      </c>
+      <c r="N9" s="119"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="T9" s="105">
+        <v>26</v>
+      </c>
+      <c r="U9" s="119"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA9" s="105">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="119"/>
+      <c r="AG9" s="117"/>
+      <c r="AH9" s="118"/>
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="119"/>
+      <c r="AN9" s="117"/>
+      <c r="AO9" s="118"/>
+      <c r="AP9" s="118"/>
+      <c r="AQ9" s="119"/>
+    </row>
+    <row r="10" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="119"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="119"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="119"/>
+      <c r="AG10" s="117"/>
+      <c r="AH10" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI10" s="105">
+        <v>26</v>
+      </c>
+      <c r="AJ10" s="119"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP10" s="105">
+        <v>25</v>
+      </c>
+      <c r="AQ10" s="119"/>
+      <c r="AV10" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW10" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX10" s="115"/>
+      <c r="AY10" s="115"/>
+      <c r="AZ10" s="116"/>
+      <c r="BC10" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD10" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE10" s="115"/>
+      <c r="BF10" s="115"/>
+      <c r="BG10" s="116"/>
+    </row>
+    <row r="11" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="117"/>
+      <c r="E11" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="119"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="119"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="U11" s="119"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA11" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB11" s="119"/>
+      <c r="AG11" s="117"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="119"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="119"/>
+      <c r="AW11" s="117"/>
+      <c r="AX11" s="118"/>
+      <c r="AY11" s="118"/>
+      <c r="AZ11" s="119"/>
+      <c r="BD11" s="117"/>
+      <c r="BE11" s="118"/>
+      <c r="BF11" s="118"/>
+      <c r="BG11" s="119"/>
+    </row>
+    <row r="12" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="117"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="119"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="119"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="118"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="119"/>
+      <c r="AG12" s="117"/>
+      <c r="AH12" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI12" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ12" s="119"/>
+      <c r="AN12" s="117"/>
+      <c r="AO12" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP12" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ12" s="119"/>
+      <c r="AW12" s="117"/>
+      <c r="AX12" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY12" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ12" s="119"/>
+      <c r="BD12" s="117"/>
+      <c r="BE12" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF12" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG12" s="119"/>
+    </row>
+    <row r="13" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="117"/>
+      <c r="E13" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="119"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" s="119"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="T13" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="U13" s="119"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA13" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB13" s="119"/>
+      <c r="AG13" s="117"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="119"/>
+      <c r="AN13" s="117"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="119"/>
+      <c r="AW13" s="117"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="118"/>
+      <c r="AZ13" s="119"/>
+      <c r="BD13" s="117"/>
+      <c r="BE13" s="118"/>
+      <c r="BF13" s="118"/>
+      <c r="BG13" s="119"/>
+    </row>
+    <row r="14" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="119"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="119"/>
+      <c r="AG14" s="117"/>
+      <c r="AH14" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI14" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ14" s="119"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP14" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ14" s="119"/>
+      <c r="AW14" s="117"/>
+      <c r="AX14" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY14" s="105">
+        <v>26</v>
+      </c>
+      <c r="AZ14" s="119"/>
+      <c r="BD14" s="117"/>
+      <c r="BE14" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF14" s="105">
+        <v>25</v>
+      </c>
+      <c r="BG14" s="119"/>
+    </row>
+    <row r="15" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="117"/>
+      <c r="E15" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="G15" s="119"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="N15" s="119"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="T15" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="U15" s="119"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA15" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="AB15" s="119"/>
+      <c r="AG15" s="117"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="119"/>
+      <c r="AN15" s="117"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="119"/>
+      <c r="AW15" s="117"/>
+      <c r="AX15" s="118"/>
+      <c r="AY15" s="118"/>
+      <c r="AZ15" s="119"/>
+      <c r="BD15" s="117"/>
+      <c r="BE15" s="118"/>
+      <c r="BF15" s="118"/>
+      <c r="BG15" s="119"/>
+    </row>
+    <row r="16" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="119"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="119"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="119"/>
+      <c r="AG16" s="117"/>
+      <c r="AH16" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI16" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="AJ16" s="119"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP16" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="AQ16" s="119"/>
+      <c r="AW16" s="117"/>
+      <c r="AX16" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY16" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ16" s="119"/>
+      <c r="BD16" s="117"/>
+      <c r="BE16" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF16" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG16" s="119"/>
+    </row>
+    <row r="17" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="117"/>
+      <c r="E17" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="105">
+        <v>0</v>
+      </c>
+      <c r="G17" s="119"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="105">
+        <v>0</v>
+      </c>
+      <c r="N17" s="119"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="105">
+        <v>0</v>
+      </c>
+      <c r="U17" s="119"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA17" s="105">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="119"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="119"/>
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="119"/>
+      <c r="AW17" s="117"/>
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="118"/>
+      <c r="AZ17" s="119"/>
+      <c r="BD17" s="117"/>
+      <c r="BE17" s="118"/>
+      <c r="BF17" s="118"/>
+      <c r="BG17" s="119"/>
+    </row>
+    <row r="18" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="119"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="119"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="119"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI18" s="105">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="119"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP18" s="105">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="119"/>
+      <c r="AW18" s="117"/>
+      <c r="AX18" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY18" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ18" s="119"/>
+      <c r="BD18" s="117"/>
+      <c r="BE18" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF18" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG18" s="119"/>
+    </row>
+    <row r="19" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="117"/>
+      <c r="E19" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="119"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="119"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="T19" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="U19" s="119"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA19" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB19" s="119"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="119"/>
+      <c r="AN19" s="117"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="119"/>
+      <c r="AW19" s="117"/>
+      <c r="AX19" s="118"/>
+      <c r="AY19" s="118"/>
+      <c r="AZ19" s="119"/>
+      <c r="BD19" s="117"/>
+      <c r="BE19" s="118"/>
+      <c r="BF19" s="118"/>
+      <c r="BG19" s="119"/>
+    </row>
+    <row r="20" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="119"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="119"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="119"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="119"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI20" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ20" s="119"/>
+      <c r="AN20" s="117"/>
+      <c r="AO20" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP20" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ20" s="119"/>
+      <c r="AW20" s="117"/>
+      <c r="AX20" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY20" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="AZ20" s="119"/>
+      <c r="BD20" s="117"/>
+      <c r="BE20" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF20" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="BG20" s="119"/>
+    </row>
+    <row r="21" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="119"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="119"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="119"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="119"/>
+      <c r="AG21" s="117"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="118"/>
+      <c r="AJ21" s="119"/>
+      <c r="AN21" s="117"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="118"/>
+      <c r="AQ21" s="119"/>
+      <c r="AW21" s="117"/>
+      <c r="AX21" s="118"/>
+      <c r="AY21" s="118"/>
+      <c r="AZ21" s="119"/>
+      <c r="BD21" s="117"/>
+      <c r="BE21" s="118"/>
+      <c r="BF21" s="118"/>
+      <c r="BG21" s="119"/>
+    </row>
+    <row r="22" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="119"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="119"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="119"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="119"/>
+      <c r="AG22" s="117"/>
+      <c r="AH22" s="118"/>
+      <c r="AI22" s="118"/>
+      <c r="AJ22" s="119"/>
+      <c r="AN22" s="117"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="119"/>
+      <c r="AW22" s="117"/>
+      <c r="AX22" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY22" s="105">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="119"/>
+      <c r="BD22" s="117"/>
+      <c r="BE22" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF22" s="105">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="119"/>
+    </row>
+    <row r="23" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="122"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="122"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="121"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="122"/>
+      <c r="AG23" s="117"/>
+      <c r="AH23" s="118"/>
+      <c r="AI23" s="118"/>
+      <c r="AJ23" s="119"/>
+      <c r="AN23" s="117"/>
+      <c r="AO23" s="118"/>
+      <c r="AP23" s="118"/>
+      <c r="AQ23" s="119"/>
+      <c r="AW23" s="117"/>
+      <c r="AX23" s="118"/>
+      <c r="AY23" s="118"/>
+      <c r="AZ23" s="119"/>
+      <c r="BD23" s="117"/>
+      <c r="BE23" s="118"/>
+      <c r="BF23" s="118"/>
+      <c r="BG23" s="119"/>
+    </row>
+    <row r="24" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
+      <c r="AJ24" s="122"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="121"/>
+      <c r="AP24" s="121"/>
+      <c r="AQ24" s="122"/>
+      <c r="AW24" s="117"/>
+      <c r="AX24" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY24" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ24" s="119"/>
+      <c r="BD24" s="117"/>
+      <c r="BE24" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF24" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG24" s="119"/>
+    </row>
+    <row r="25" spans="4:59" x14ac:dyDescent="0.25">
+      <c r="AW25" s="117"/>
+      <c r="AX25" s="118"/>
+      <c r="AY25" s="118"/>
+      <c r="AZ25" s="119"/>
+      <c r="BD25" s="117"/>
+      <c r="BE25" s="118"/>
+      <c r="BF25" s="118"/>
+      <c r="BG25" s="119"/>
+    </row>
+    <row r="26" spans="4:59" x14ac:dyDescent="0.25">
+      <c r="AW26" s="117"/>
+      <c r="AX26" s="118"/>
+      <c r="AY26" s="118"/>
+      <c r="AZ26" s="119"/>
+      <c r="BD26" s="117"/>
+      <c r="BE26" s="118"/>
+      <c r="BF26" s="118"/>
+      <c r="BG26" s="119"/>
+    </row>
+    <row r="27" spans="4:59" x14ac:dyDescent="0.25">
+      <c r="AW27" s="117"/>
+      <c r="AX27" s="118"/>
+      <c r="AY27" s="118"/>
+      <c r="AZ27" s="119"/>
+      <c r="BD27" s="117"/>
+      <c r="BE27" s="118"/>
+      <c r="BF27" s="118"/>
+      <c r="BG27" s="119"/>
+    </row>
+    <row r="28" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW28" s="120"/>
+      <c r="AX28" s="121"/>
+      <c r="AY28" s="121"/>
+      <c r="AZ28" s="122"/>
+      <c r="BD28" s="120"/>
+      <c r="BE28" s="121"/>
+      <c r="BF28" s="121"/>
+      <c r="BG28" s="122"/>
+    </row>
+    <row r="30" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="116"/>
+      <c r="N31" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="116"/>
+    </row>
+    <row r="32" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="117"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="119"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="119"/>
+    </row>
+    <row r="33" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="117"/>
+      <c r="I33" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" s="119"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="R33" s="119"/>
+    </row>
+    <row r="34" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="117"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="119"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="119"/>
+      <c r="T34" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="U34" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="116"/>
+      <c r="AA34" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB34" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC34" s="115"/>
+      <c r="AD34" s="115"/>
+      <c r="AE34" s="116"/>
+    </row>
+    <row r="35" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="117"/>
+      <c r="I35" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="105">
+        <v>26</v>
+      </c>
+      <c r="K35" s="119"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q35" s="105">
+        <v>25</v>
+      </c>
+      <c r="R35" s="119"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="118"/>
+      <c r="W35" s="118"/>
+      <c r="X35" s="119"/>
+      <c r="AB35" s="117"/>
+      <c r="AC35" s="118"/>
+      <c r="AD35" s="118"/>
+      <c r="AE35" s="119"/>
+      <c r="AI35" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ35" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK35" s="115"/>
+      <c r="AL35" s="115"/>
+      <c r="AM35" s="116"/>
+      <c r="AP35" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ35" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR35" s="115"/>
+      <c r="AS35" s="115"/>
+      <c r="AT35" s="116"/>
+      <c r="AY35" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ35" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA35" s="115"/>
+      <c r="BB35" s="115"/>
+      <c r="BC35" s="116"/>
+      <c r="BF35" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG35" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH35" s="115"/>
+      <c r="BI35" s="115"/>
+      <c r="BJ35" s="116"/>
+    </row>
+    <row r="36" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="117"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="119"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
+      <c r="R36" s="119"/>
+      <c r="U36" s="117"/>
+      <c r="V36" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="W36" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="X36" s="119"/>
+      <c r="AB36" s="117"/>
+      <c r="AC36" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD36" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE36" s="119"/>
+      <c r="AJ36" s="117"/>
+      <c r="AK36" s="118"/>
+      <c r="AL36" s="118"/>
+      <c r="AM36" s="119"/>
+      <c r="AQ36" s="117"/>
+      <c r="AR36" s="118"/>
+      <c r="AS36" s="118"/>
+      <c r="AT36" s="119"/>
+      <c r="AZ36" s="117"/>
+      <c r="BA36" s="118"/>
+      <c r="BB36" s="118"/>
+      <c r="BC36" s="119"/>
+      <c r="BG36" s="117"/>
+      <c r="BH36" s="118"/>
+      <c r="BI36" s="118"/>
+      <c r="BJ36" s="119"/>
+    </row>
+    <row r="37" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="117"/>
+      <c r="I37" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="119"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q37" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="R37" s="119"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="118"/>
+      <c r="W37" s="118"/>
+      <c r="X37" s="119"/>
+      <c r="AB37" s="117"/>
+      <c r="AC37" s="118"/>
+      <c r="AD37" s="118"/>
+      <c r="AE37" s="119"/>
+      <c r="AJ37" s="117"/>
+      <c r="AK37" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL37" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM37" s="119"/>
+      <c r="AQ37" s="117"/>
+      <c r="AR37" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS37" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT37" s="119"/>
+      <c r="AZ37" s="117"/>
+      <c r="BA37" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB37" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC37" s="119"/>
+      <c r="BG37" s="117"/>
+      <c r="BH37" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI37" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ37" s="119"/>
+    </row>
+    <row r="38" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="117"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="119"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="119"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="W38" s="105">
+        <v>26</v>
+      </c>
+      <c r="X38" s="119"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD38" s="105">
+        <v>25</v>
+      </c>
+      <c r="AE38" s="119"/>
+      <c r="AJ38" s="117"/>
+      <c r="AK38" s="118"/>
+      <c r="AL38" s="118"/>
+      <c r="AM38" s="119"/>
+      <c r="AQ38" s="117"/>
+      <c r="AR38" s="118"/>
+      <c r="AS38" s="118"/>
+      <c r="AT38" s="119"/>
+      <c r="AZ38" s="117"/>
+      <c r="BA38" s="118"/>
+      <c r="BB38" s="118"/>
+      <c r="BC38" s="119"/>
+      <c r="BG38" s="117"/>
+      <c r="BH38" s="118"/>
+      <c r="BI38" s="118"/>
+      <c r="BJ38" s="119"/>
+    </row>
+    <row r="39" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="117"/>
+      <c r="I39" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" s="119"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q39" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="R39" s="119"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="118"/>
+      <c r="W39" s="118"/>
+      <c r="X39" s="119"/>
+      <c r="AB39" s="117"/>
+      <c r="AC39" s="118"/>
+      <c r="AD39" s="118"/>
+      <c r="AE39" s="119"/>
+      <c r="AJ39" s="117"/>
+      <c r="AK39" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL39" s="105">
+        <v>26</v>
+      </c>
+      <c r="AM39" s="119"/>
+      <c r="AQ39" s="117"/>
+      <c r="AR39" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS39" s="105">
+        <v>25</v>
+      </c>
+      <c r="AT39" s="119"/>
+      <c r="AZ39" s="117"/>
+      <c r="BA39" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB39" s="105">
+        <v>26</v>
+      </c>
+      <c r="BC39" s="119"/>
+      <c r="BG39" s="117"/>
+      <c r="BH39" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI39" s="105">
+        <v>25</v>
+      </c>
+      <c r="BJ39" s="119"/>
+    </row>
+    <row r="40" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="117"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="119"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="118"/>
+      <c r="R40" s="119"/>
+      <c r="U40" s="117"/>
+      <c r="V40" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="W40" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="X40" s="119"/>
+      <c r="AB40" s="117"/>
+      <c r="AC40" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD40" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE40" s="119"/>
+      <c r="AJ40" s="117"/>
+      <c r="AK40" s="118"/>
+      <c r="AL40" s="118"/>
+      <c r="AM40" s="119"/>
+      <c r="AQ40" s="117"/>
+      <c r="AR40" s="118"/>
+      <c r="AS40" s="118"/>
+      <c r="AT40" s="119"/>
+      <c r="AZ40" s="117"/>
+      <c r="BA40" s="118"/>
+      <c r="BB40" s="118"/>
+      <c r="BC40" s="119"/>
+      <c r="BG40" s="117"/>
+      <c r="BH40" s="118"/>
+      <c r="BI40" s="118"/>
+      <c r="BJ40" s="119"/>
+    </row>
+    <row r="41" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="117"/>
+      <c r="I41" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="K41" s="119"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q41" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="R41" s="119"/>
+      <c r="U41" s="117"/>
+      <c r="V41" s="118"/>
+      <c r="W41" s="118"/>
+      <c r="X41" s="119"/>
+      <c r="AB41" s="117"/>
+      <c r="AC41" s="118"/>
+      <c r="AD41" s="118"/>
+      <c r="AE41" s="119"/>
+      <c r="AJ41" s="117"/>
+      <c r="AK41" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL41" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM41" s="119"/>
+      <c r="AQ41" s="117"/>
+      <c r="AR41" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS41" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT41" s="119"/>
+      <c r="AZ41" s="117"/>
+      <c r="BA41" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB41" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC41" s="119"/>
+      <c r="BG41" s="117"/>
+      <c r="BH41" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI41" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ41" s="119"/>
+    </row>
+    <row r="42" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="119"/>
+      <c r="O42" s="117"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="118"/>
+      <c r="R42" s="119"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="W42" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="X42" s="119"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD42" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE42" s="119"/>
+      <c r="AJ42" s="117"/>
+      <c r="AK42" s="118"/>
+      <c r="AL42" s="118"/>
+      <c r="AM42" s="119"/>
+      <c r="AQ42" s="117"/>
+      <c r="AR42" s="118"/>
+      <c r="AS42" s="118"/>
+      <c r="AT42" s="119"/>
+      <c r="AZ42" s="117"/>
+      <c r="BA42" s="118"/>
+      <c r="BB42" s="118"/>
+      <c r="BC42" s="119"/>
+      <c r="BG42" s="117"/>
+      <c r="BH42" s="118"/>
+      <c r="BI42" s="118"/>
+      <c r="BJ42" s="119"/>
+    </row>
+    <row r="43" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="117"/>
+      <c r="I43" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="105">
+        <v>0</v>
+      </c>
+      <c r="K43" s="119"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43" s="105">
+        <v>0</v>
+      </c>
+      <c r="R43" s="119"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="118"/>
+      <c r="X43" s="119"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="118"/>
+      <c r="AD43" s="118"/>
+      <c r="AE43" s="119"/>
+      <c r="AJ43" s="117"/>
+      <c r="AK43" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL43" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM43" s="119"/>
+      <c r="AQ43" s="117"/>
+      <c r="AR43" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS43" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT43" s="119"/>
+      <c r="AZ43" s="117"/>
+      <c r="BA43" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB43" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC43" s="119"/>
+      <c r="BG43" s="117"/>
+      <c r="BH43" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI43" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ43" s="119"/>
+    </row>
+    <row r="44" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="117"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="119"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="119"/>
+      <c r="U44" s="117"/>
+      <c r="V44" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="W44" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="X44" s="119"/>
+      <c r="AB44" s="117"/>
+      <c r="AC44" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD44" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="AE44" s="119"/>
+      <c r="AJ44" s="117"/>
+      <c r="AK44" s="118"/>
+      <c r="AL44" s="118"/>
+      <c r="AM44" s="119"/>
+      <c r="AQ44" s="117"/>
+      <c r="AR44" s="118"/>
+      <c r="AS44" s="118"/>
+      <c r="AT44" s="119"/>
+      <c r="AZ44" s="117"/>
+      <c r="BA44" s="118"/>
+      <c r="BB44" s="118"/>
+      <c r="BC44" s="119"/>
+      <c r="BG44" s="117"/>
+      <c r="BH44" s="118"/>
+      <c r="BI44" s="118"/>
+      <c r="BJ44" s="119"/>
+    </row>
+    <row r="45" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="117"/>
+      <c r="I45" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="K45" s="119"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q45" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="R45" s="119"/>
+      <c r="U45" s="117"/>
+      <c r="V45" s="118"/>
+      <c r="W45" s="118"/>
+      <c r="X45" s="119"/>
+      <c r="AB45" s="117"/>
+      <c r="AC45" s="118"/>
+      <c r="AD45" s="118"/>
+      <c r="AE45" s="119"/>
+      <c r="AJ45" s="117"/>
+      <c r="AK45" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL45" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="AM45" s="119"/>
+      <c r="AQ45" s="117"/>
+      <c r="AR45" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS45" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="AT45" s="119"/>
+      <c r="AZ45" s="117"/>
+      <c r="BA45" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB45" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="BC45" s="119"/>
+      <c r="BG45" s="117"/>
+      <c r="BH45" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI45" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="BJ45" s="119"/>
+    </row>
+    <row r="46" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="117"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="119"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="119"/>
+      <c r="U46" s="117"/>
+      <c r="V46" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="W46" s="105">
+        <v>0</v>
+      </c>
+      <c r="X46" s="119"/>
+      <c r="AB46" s="117"/>
+      <c r="AC46" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD46" s="105">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="119"/>
+      <c r="AJ46" s="117"/>
+      <c r="AK46" s="118"/>
+      <c r="AL46" s="118"/>
+      <c r="AM46" s="119"/>
+      <c r="AQ46" s="117"/>
+      <c r="AR46" s="118"/>
+      <c r="AS46" s="118"/>
+      <c r="AT46" s="119"/>
+      <c r="AZ46" s="117"/>
+      <c r="BA46" s="118"/>
+      <c r="BB46" s="118"/>
+      <c r="BC46" s="119"/>
+      <c r="BG46" s="117"/>
+      <c r="BH46" s="118"/>
+      <c r="BI46" s="118"/>
+      <c r="BJ46" s="119"/>
+    </row>
+    <row r="47" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="117"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="119"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="119"/>
+      <c r="U47" s="117"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="118"/>
+      <c r="X47" s="119"/>
+      <c r="AB47" s="117"/>
+      <c r="AC47" s="118"/>
+      <c r="AD47" s="118"/>
+      <c r="AE47" s="119"/>
+      <c r="AJ47" s="117"/>
+      <c r="AK47" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL47" s="105">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="119"/>
+      <c r="AQ47" s="117"/>
+      <c r="AR47" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS47" s="105">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="119"/>
+      <c r="AZ47" s="117"/>
+      <c r="BA47" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB47" s="105">
+        <v>0</v>
+      </c>
+      <c r="BC47" s="119"/>
+      <c r="BG47" s="117"/>
+      <c r="BH47" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI47" s="105">
+        <v>0</v>
+      </c>
+      <c r="BJ47" s="119"/>
+    </row>
+    <row r="48" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="117"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="119"/>
+      <c r="O48" s="117"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="119"/>
+      <c r="U48" s="117"/>
+      <c r="V48" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="W48" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="X48" s="119"/>
+      <c r="AB48" s="117"/>
+      <c r="AC48" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD48" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE48" s="119"/>
+      <c r="AJ48" s="117"/>
+      <c r="AK48" s="118"/>
+      <c r="AL48" s="118"/>
+      <c r="AM48" s="119"/>
+      <c r="AQ48" s="117"/>
+      <c r="AR48" s="118"/>
+      <c r="AS48" s="118"/>
+      <c r="AT48" s="119"/>
+      <c r="AZ48" s="117"/>
+      <c r="BA48" s="118"/>
+      <c r="BB48" s="118"/>
+      <c r="BC48" s="119"/>
+      <c r="BG48" s="117"/>
+      <c r="BH48" s="118"/>
+      <c r="BI48" s="118"/>
+      <c r="BJ48" s="119"/>
+    </row>
+    <row r="49" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="120"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="122"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="121"/>
+      <c r="R49" s="122"/>
+      <c r="U49" s="117"/>
+      <c r="V49" s="118"/>
+      <c r="W49" s="118"/>
+      <c r="X49" s="119"/>
+      <c r="AB49" s="117"/>
+      <c r="AC49" s="118"/>
+      <c r="AD49" s="118"/>
+      <c r="AE49" s="119"/>
+      <c r="AJ49" s="117"/>
+      <c r="AK49" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL49" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM49" s="119"/>
+      <c r="AQ49" s="117"/>
+      <c r="AR49" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS49" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT49" s="119"/>
+      <c r="AZ49" s="117"/>
+      <c r="BA49" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB49" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC49" s="119"/>
+      <c r="BG49" s="117"/>
+      <c r="BH49" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI49" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ49" s="119"/>
+    </row>
+    <row r="50" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="U50" s="117"/>
+      <c r="V50" s="118"/>
+      <c r="W50" s="118"/>
+      <c r="X50" s="119"/>
+      <c r="AB50" s="117"/>
+      <c r="AC50" s="118"/>
+      <c r="AD50" s="118"/>
+      <c r="AE50" s="119"/>
+      <c r="AJ50" s="117"/>
+      <c r="AK50" s="118"/>
+      <c r="AL50" s="118"/>
+      <c r="AM50" s="119"/>
+      <c r="AQ50" s="117"/>
+      <c r="AR50" s="118"/>
+      <c r="AS50" s="118"/>
+      <c r="AT50" s="119"/>
+      <c r="AZ50" s="117"/>
+      <c r="BA50" s="118"/>
+      <c r="BB50" s="118"/>
+      <c r="BC50" s="119"/>
+      <c r="BG50" s="117"/>
+      <c r="BH50" s="118"/>
+      <c r="BI50" s="118"/>
+      <c r="BJ50" s="119"/>
+    </row>
+    <row r="51" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="U51" s="117"/>
+      <c r="V51" s="118"/>
+      <c r="W51" s="118"/>
+      <c r="X51" s="119"/>
+      <c r="AB51" s="117"/>
+      <c r="AC51" s="118"/>
+      <c r="AD51" s="118"/>
+      <c r="AE51" s="119"/>
+      <c r="AJ51" s="117"/>
+      <c r="AK51" s="118"/>
+      <c r="AL51" s="118"/>
+      <c r="AM51" s="119"/>
+      <c r="AQ51" s="117"/>
+      <c r="AR51" s="118"/>
+      <c r="AS51" s="118"/>
+      <c r="AT51" s="119"/>
+      <c r="AZ51" s="117"/>
+      <c r="BA51" s="118"/>
+      <c r="BB51" s="118"/>
+      <c r="BC51" s="119"/>
+      <c r="BG51" s="117"/>
+      <c r="BH51" s="118"/>
+      <c r="BI51" s="118"/>
+      <c r="BJ51" s="119"/>
+    </row>
+    <row r="52" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U52" s="120"/>
+      <c r="V52" s="121"/>
+      <c r="W52" s="121"/>
+      <c r="X52" s="122"/>
+      <c r="AB52" s="120"/>
+      <c r="AC52" s="121"/>
+      <c r="AD52" s="121"/>
+      <c r="AE52" s="122"/>
+      <c r="AJ52" s="117"/>
+      <c r="AK52" s="118"/>
+      <c r="AL52" s="118"/>
+      <c r="AM52" s="119"/>
+      <c r="AQ52" s="117"/>
+      <c r="AR52" s="118"/>
+      <c r="AS52" s="118"/>
+      <c r="AT52" s="119"/>
+      <c r="AZ52" s="117"/>
+      <c r="BA52" s="118"/>
+      <c r="BB52" s="118"/>
+      <c r="BC52" s="119"/>
+      <c r="BG52" s="117"/>
+      <c r="BH52" s="118"/>
+      <c r="BI52" s="118"/>
+      <c r="BJ52" s="119"/>
+    </row>
+    <row r="53" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ53" s="120"/>
+      <c r="AK53" s="121"/>
+      <c r="AL53" s="121"/>
+      <c r="AM53" s="122"/>
+      <c r="AQ53" s="120"/>
+      <c r="AR53" s="121"/>
+      <c r="AS53" s="121"/>
+      <c r="AT53" s="122"/>
+      <c r="AZ53" s="120"/>
+      <c r="BA53" s="121"/>
+      <c r="BB53" s="121"/>
+      <c r="BC53" s="122"/>
+      <c r="BG53" s="120"/>
+      <c r="BH53" s="121"/>
+      <c r="BI53" s="121"/>
+      <c r="BJ53" s="122"/>
+    </row>
+    <row r="54" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O55" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="P55" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q55" s="115"/>
+      <c r="R55" s="115"/>
+      <c r="S55" s="116"/>
+      <c r="V55" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="W55" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="X55" s="115"/>
+      <c r="Y55" s="115"/>
+      <c r="Z55" s="116"/>
+    </row>
+    <row r="56" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P56" s="117"/>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="119"/>
+      <c r="W56" s="117"/>
+      <c r="X56" s="118"/>
+      <c r="Y56" s="118"/>
+      <c r="Z56" s="119"/>
+    </row>
+    <row r="57" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P57" s="117"/>
+      <c r="Q57" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="R57" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="S57" s="119"/>
+      <c r="W57" s="117"/>
+      <c r="X57" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y57" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z57" s="119"/>
+    </row>
+    <row r="58" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P58" s="117"/>
+      <c r="Q58" s="118"/>
+      <c r="R58" s="118"/>
+      <c r="S58" s="119"/>
+      <c r="W58" s="117"/>
+      <c r="X58" s="118"/>
+      <c r="Y58" s="118"/>
+      <c r="Z58" s="119"/>
+    </row>
+    <row r="59" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P59" s="117"/>
+      <c r="Q59" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="R59" s="105">
+        <v>26</v>
+      </c>
+      <c r="S59" s="119"/>
+      <c r="W59" s="117"/>
+      <c r="X59" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y59" s="105">
+        <v>25</v>
+      </c>
+      <c r="Z59" s="119"/>
+    </row>
+    <row r="60" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P60" s="117"/>
+      <c r="Q60" s="118"/>
+      <c r="R60" s="118"/>
+      <c r="S60" s="119"/>
+      <c r="W60" s="117"/>
+      <c r="X60" s="118"/>
+      <c r="Y60" s="118"/>
+      <c r="Z60" s="119"/>
+      <c r="AD60" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE60" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF60" s="115"/>
+      <c r="AG60" s="115"/>
+      <c r="AH60" s="116"/>
+      <c r="AK60" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL60" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM60" s="115"/>
+      <c r="AN60" s="115"/>
+      <c r="AO60" s="116"/>
+      <c r="AV60" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW60" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX60" s="115"/>
+      <c r="AY60" s="115"/>
+      <c r="AZ60" s="116"/>
+      <c r="BC60" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD60" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE60" s="115"/>
+      <c r="BF60" s="115"/>
+      <c r="BG60" s="116"/>
+    </row>
+    <row r="61" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="116"/>
+      <c r="I61" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="J61" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="K61" s="115"/>
+      <c r="L61" s="115"/>
+      <c r="M61" s="116"/>
+      <c r="P61" s="117"/>
+      <c r="Q61" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="R61" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="S61" s="119"/>
+      <c r="W61" s="117"/>
+      <c r="X61" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y61" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z61" s="119"/>
+      <c r="AE61" s="117"/>
+      <c r="AF61" s="118"/>
+      <c r="AG61" s="118"/>
+      <c r="AH61" s="119"/>
+      <c r="AL61" s="117"/>
+      <c r="AM61" s="118"/>
+      <c r="AN61" s="118"/>
+      <c r="AO61" s="119"/>
+      <c r="AW61" s="117"/>
+      <c r="AX61" s="118"/>
+      <c r="AY61" s="118"/>
+      <c r="AZ61" s="119"/>
+      <c r="BD61" s="117"/>
+      <c r="BE61" s="118"/>
+      <c r="BF61" s="118"/>
+      <c r="BG61" s="119"/>
+    </row>
+    <row r="62" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="117"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="119"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="118"/>
+      <c r="M62" s="119"/>
+      <c r="P62" s="117"/>
+      <c r="Q62" s="118"/>
+      <c r="R62" s="118"/>
+      <c r="S62" s="119"/>
+      <c r="W62" s="117"/>
+      <c r="X62" s="118"/>
+      <c r="Y62" s="118"/>
+      <c r="Z62" s="119"/>
+      <c r="AE62" s="117"/>
+      <c r="AF62" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG62" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH62" s="119"/>
+      <c r="AL62" s="117"/>
+      <c r="AM62" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN62" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO62" s="119"/>
+      <c r="AW62" s="117"/>
+      <c r="AX62" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY62" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ62" s="119"/>
+      <c r="BD62" s="117"/>
+      <c r="BE62" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF62" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG62" s="119"/>
+    </row>
+    <row r="63" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="117"/>
+      <c r="D63" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="119"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="L63" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="M63" s="119"/>
+      <c r="P63" s="117"/>
+      <c r="Q63" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="R63" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="S63" s="119"/>
+      <c r="W63" s="117"/>
+      <c r="X63" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y63" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z63" s="119"/>
+      <c r="AE63" s="117"/>
+      <c r="AF63" s="118"/>
+      <c r="AG63" s="118"/>
+      <c r="AH63" s="119"/>
+      <c r="AL63" s="117"/>
+      <c r="AM63" s="118"/>
+      <c r="AN63" s="118"/>
+      <c r="AO63" s="119"/>
+      <c r="AW63" s="117"/>
+      <c r="AX63" s="118"/>
+      <c r="AY63" s="118"/>
+      <c r="AZ63" s="119"/>
+      <c r="BD63" s="117"/>
+      <c r="BE63" s="118"/>
+      <c r="BF63" s="118"/>
+      <c r="BG63" s="119"/>
+    </row>
+    <row r="64" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="117"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="119"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="118"/>
+      <c r="L64" s="118"/>
+      <c r="M64" s="119"/>
+      <c r="P64" s="117"/>
+      <c r="Q64" s="118"/>
+      <c r="R64" s="118"/>
+      <c r="S64" s="119"/>
+      <c r="W64" s="117"/>
+      <c r="X64" s="118"/>
+      <c r="Y64" s="118"/>
+      <c r="Z64" s="119"/>
+      <c r="AE64" s="117"/>
+      <c r="AF64" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG64" s="105">
+        <v>26</v>
+      </c>
+      <c r="AH64" s="119"/>
+      <c r="AL64" s="117"/>
+      <c r="AM64" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN64" s="105">
+        <v>25</v>
+      </c>
+      <c r="AO64" s="119"/>
+      <c r="AW64" s="117"/>
+      <c r="AX64" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY64" s="105">
+        <v>26</v>
+      </c>
+      <c r="AZ64" s="119"/>
+      <c r="BD64" s="117"/>
+      <c r="BE64" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF64" s="105">
+        <v>25</v>
+      </c>
+      <c r="BG64" s="119"/>
+    </row>
+    <row r="65" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="117"/>
+      <c r="D65" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="105">
+        <v>26</v>
+      </c>
+      <c r="F65" s="119"/>
+      <c r="J65" s="117"/>
+      <c r="K65" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="L65" s="105">
+        <v>25</v>
+      </c>
+      <c r="M65" s="119"/>
+      <c r="P65" s="117"/>
+      <c r="Q65" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="R65" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="S65" s="119"/>
+      <c r="W65" s="117"/>
+      <c r="X65" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y65" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="Z65" s="119"/>
+      <c r="AE65" s="117"/>
+      <c r="AF65" s="118"/>
+      <c r="AG65" s="118"/>
+      <c r="AH65" s="119"/>
+      <c r="AL65" s="117"/>
+      <c r="AM65" s="118"/>
+      <c r="AN65" s="118"/>
+      <c r="AO65" s="119"/>
+      <c r="AW65" s="117"/>
+      <c r="AX65" s="118"/>
+      <c r="AY65" s="118"/>
+      <c r="AZ65" s="119"/>
+      <c r="BD65" s="117"/>
+      <c r="BE65" s="118"/>
+      <c r="BF65" s="118"/>
+      <c r="BG65" s="119"/>
+    </row>
+    <row r="66" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="117"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="119"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="118"/>
+      <c r="L66" s="118"/>
+      <c r="M66" s="119"/>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="118"/>
+      <c r="R66" s="118"/>
+      <c r="S66" s="119"/>
+      <c r="W66" s="117"/>
+      <c r="X66" s="118"/>
+      <c r="Y66" s="118"/>
+      <c r="Z66" s="119"/>
+      <c r="AE66" s="117"/>
+      <c r="AF66" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG66" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH66" s="119"/>
+      <c r="AL66" s="117"/>
+      <c r="AM66" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN66" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO66" s="119"/>
+      <c r="AW66" s="117"/>
+      <c r="AX66" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY66" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ66" s="119"/>
+      <c r="BD66" s="117"/>
+      <c r="BE66" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF66" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG66" s="119"/>
+    </row>
+    <row r="67" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="117"/>
+      <c r="D67" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="119"/>
+      <c r="J67" s="117"/>
+      <c r="K67" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="L67" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="M67" s="119"/>
+      <c r="P67" s="117"/>
+      <c r="Q67" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="R67" s="105">
+        <v>0</v>
+      </c>
+      <c r="S67" s="119"/>
+      <c r="W67" s="117"/>
+      <c r="X67" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y67" s="105">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="119"/>
+      <c r="AE67" s="117"/>
+      <c r="AF67" s="118"/>
+      <c r="AG67" s="118"/>
+      <c r="AH67" s="119"/>
+      <c r="AL67" s="117"/>
+      <c r="AM67" s="118"/>
+      <c r="AN67" s="118"/>
+      <c r="AO67" s="119"/>
+      <c r="AW67" s="117"/>
+      <c r="AX67" s="118"/>
+      <c r="AY67" s="118"/>
+      <c r="AZ67" s="119"/>
+      <c r="BD67" s="117"/>
+      <c r="BE67" s="118"/>
+      <c r="BF67" s="118"/>
+      <c r="BG67" s="119"/>
+    </row>
+    <row r="68" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="117"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="119"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="118"/>
+      <c r="L68" s="118"/>
+      <c r="M68" s="119"/>
+      <c r="P68" s="117"/>
+      <c r="Q68" s="118"/>
+      <c r="R68" s="118"/>
+      <c r="S68" s="119"/>
+      <c r="W68" s="117"/>
+      <c r="X68" s="118"/>
+      <c r="Y68" s="118"/>
+      <c r="Z68" s="119"/>
+      <c r="AE68" s="117"/>
+      <c r="AF68" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG68" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH68" s="119"/>
+      <c r="AL68" s="117"/>
+      <c r="AM68" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN68" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO68" s="119"/>
+      <c r="AW68" s="117"/>
+      <c r="AX68" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY68" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ68" s="119"/>
+      <c r="BD68" s="117"/>
+      <c r="BE68" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF68" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG68" s="119"/>
+    </row>
+    <row r="69" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="117"/>
+      <c r="D69" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="F69" s="119"/>
+      <c r="J69" s="117"/>
+      <c r="K69" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="M69" s="119"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="R69" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="S69" s="119"/>
+      <c r="W69" s="117"/>
+      <c r="X69" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y69" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z69" s="119"/>
+      <c r="AE69" s="117"/>
+      <c r="AF69" s="118"/>
+      <c r="AG69" s="118"/>
+      <c r="AH69" s="119"/>
+      <c r="AL69" s="117"/>
+      <c r="AM69" s="118"/>
+      <c r="AN69" s="118"/>
+      <c r="AO69" s="119"/>
+      <c r="AW69" s="117"/>
+      <c r="AX69" s="118"/>
+      <c r="AY69" s="118"/>
+      <c r="AZ69" s="119"/>
+      <c r="BD69" s="117"/>
+      <c r="BE69" s="118"/>
+      <c r="BF69" s="118"/>
+      <c r="BG69" s="119"/>
+    </row>
+    <row r="70" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="117"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="119"/>
+      <c r="J70" s="117"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="118"/>
+      <c r="M70" s="119"/>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="118"/>
+      <c r="R70" s="118"/>
+      <c r="S70" s="119"/>
+      <c r="W70" s="117"/>
+      <c r="X70" s="118"/>
+      <c r="Y70" s="118"/>
+      <c r="Z70" s="119"/>
+      <c r="AE70" s="117"/>
+      <c r="AF70" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG70" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="AH70" s="119"/>
+      <c r="AL70" s="117"/>
+      <c r="AM70" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN70" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="AO70" s="119"/>
+      <c r="AW70" s="117"/>
+      <c r="AX70" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY70" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="AZ70" s="119"/>
+      <c r="BD70" s="117"/>
+      <c r="BE70" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF70" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="BG70" s="119"/>
+    </row>
+    <row r="71" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="117"/>
+      <c r="D71" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="F71" s="119"/>
+      <c r="J71" s="117"/>
+      <c r="K71" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="L71" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="M71" s="119"/>
+      <c r="P71" s="117"/>
+      <c r="Q71" s="118"/>
+      <c r="R71" s="118"/>
+      <c r="S71" s="119"/>
+      <c r="W71" s="117"/>
+      <c r="X71" s="118"/>
+      <c r="Y71" s="118"/>
+      <c r="Z71" s="119"/>
+      <c r="AE71" s="117"/>
+      <c r="AF71" s="118"/>
+      <c r="AG71" s="118"/>
+      <c r="AH71" s="119"/>
+      <c r="AL71" s="117"/>
+      <c r="AM71" s="118"/>
+      <c r="AN71" s="118"/>
+      <c r="AO71" s="119"/>
+      <c r="AW71" s="117"/>
+      <c r="AX71" s="118"/>
+      <c r="AY71" s="118"/>
+      <c r="AZ71" s="119"/>
+      <c r="BD71" s="117"/>
+      <c r="BE71" s="118"/>
+      <c r="BF71" s="118"/>
+      <c r="BG71" s="119"/>
+    </row>
+    <row r="72" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="117"/>
+      <c r="D72" s="118"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="119"/>
+      <c r="J72" s="117"/>
+      <c r="K72" s="118"/>
+      <c r="L72" s="118"/>
+      <c r="M72" s="119"/>
+      <c r="P72" s="117"/>
+      <c r="Q72" s="118"/>
+      <c r="R72" s="118"/>
+      <c r="S72" s="119"/>
+      <c r="W72" s="117"/>
+      <c r="X72" s="118"/>
+      <c r="Y72" s="118"/>
+      <c r="Z72" s="119"/>
+      <c r="AE72" s="117"/>
+      <c r="AF72" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG72" s="105">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="119"/>
+      <c r="AL72" s="117"/>
+      <c r="AM72" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN72" s="105">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="119"/>
+      <c r="AW72" s="117"/>
+      <c r="AX72" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY72" s="105">
+        <v>0</v>
+      </c>
+      <c r="AZ72" s="119"/>
+      <c r="BD72" s="117"/>
+      <c r="BE72" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF72" s="105">
+        <v>0</v>
+      </c>
+      <c r="BG72" s="119"/>
+    </row>
+    <row r="73" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="117"/>
+      <c r="D73" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="105">
+        <v>0</v>
+      </c>
+      <c r="F73" s="119"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="L73" s="105">
+        <v>0</v>
+      </c>
+      <c r="M73" s="119"/>
+      <c r="P73" s="120"/>
+      <c r="Q73" s="121"/>
+      <c r="R73" s="121"/>
+      <c r="S73" s="122"/>
+      <c r="W73" s="120"/>
+      <c r="X73" s="121"/>
+      <c r="Y73" s="121"/>
+      <c r="Z73" s="122"/>
+      <c r="AE73" s="117"/>
+      <c r="AF73" s="118"/>
+      <c r="AG73" s="118"/>
+      <c r="AH73" s="119"/>
+      <c r="AL73" s="117"/>
+      <c r="AM73" s="118"/>
+      <c r="AN73" s="118"/>
+      <c r="AO73" s="119"/>
+      <c r="AW73" s="117"/>
+      <c r="AX73" s="118"/>
+      <c r="AY73" s="118"/>
+      <c r="AZ73" s="119"/>
+      <c r="BD73" s="117"/>
+      <c r="BE73" s="118"/>
+      <c r="BF73" s="118"/>
+      <c r="BG73" s="119"/>
+    </row>
+    <row r="74" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="117"/>
+      <c r="D74" s="118"/>
+      <c r="E74" s="118"/>
+      <c r="F74" s="119"/>
+      <c r="J74" s="117"/>
+      <c r="K74" s="118"/>
+      <c r="L74" s="118"/>
+      <c r="M74" s="119"/>
+      <c r="AE74" s="117"/>
+      <c r="AF74" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG74" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH74" s="119"/>
+      <c r="AL74" s="117"/>
+      <c r="AM74" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN74" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO74" s="119"/>
+      <c r="AW74" s="117"/>
+      <c r="AX74" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY74" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ74" s="119"/>
+      <c r="BD74" s="117"/>
+      <c r="BE74" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF74" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG74" s="119"/>
+    </row>
+    <row r="75" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="117"/>
+      <c r="D75" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" s="119"/>
+      <c r="J75" s="117"/>
+      <c r="K75" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="L75" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="M75" s="119"/>
+      <c r="AE75" s="117"/>
+      <c r="AF75" s="118"/>
+      <c r="AG75" s="118"/>
+      <c r="AH75" s="119"/>
+      <c r="AL75" s="117"/>
+      <c r="AM75" s="118"/>
+      <c r="AN75" s="118"/>
+      <c r="AO75" s="119"/>
+      <c r="AW75" s="117"/>
+      <c r="AX75" s="118"/>
+      <c r="AY75" s="118"/>
+      <c r="AZ75" s="119"/>
+      <c r="BD75" s="117"/>
+      <c r="BE75" s="118"/>
+      <c r="BF75" s="118"/>
+      <c r="BG75" s="119"/>
+    </row>
+    <row r="76" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C76" s="117"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="119"/>
+      <c r="J76" s="117"/>
+      <c r="K76" s="118"/>
+      <c r="L76" s="118"/>
+      <c r="M76" s="119"/>
+      <c r="AE76" s="117"/>
+      <c r="AF76" s="118"/>
+      <c r="AG76" s="118"/>
+      <c r="AH76" s="119"/>
+      <c r="AL76" s="117"/>
+      <c r="AM76" s="118"/>
+      <c r="AN76" s="118"/>
+      <c r="AO76" s="119"/>
+      <c r="AW76" s="117"/>
+      <c r="AX76" s="118"/>
+      <c r="AY76" s="118"/>
+      <c r="AZ76" s="119"/>
+      <c r="BD76" s="117"/>
+      <c r="BE76" s="118"/>
+      <c r="BF76" s="118"/>
+      <c r="BG76" s="119"/>
+    </row>
+    <row r="77" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C77" s="117"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="119"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="118"/>
+      <c r="L77" s="118"/>
+      <c r="M77" s="119"/>
+      <c r="AE77" s="117"/>
+      <c r="AF77" s="118"/>
+      <c r="AG77" s="118"/>
+      <c r="AH77" s="119"/>
+      <c r="AL77" s="117"/>
+      <c r="AM77" s="118"/>
+      <c r="AN77" s="118"/>
+      <c r="AO77" s="119"/>
+      <c r="AW77" s="117"/>
+      <c r="AX77" s="118"/>
+      <c r="AY77" s="118"/>
+      <c r="AZ77" s="119"/>
+      <c r="BD77" s="117"/>
+      <c r="BE77" s="118"/>
+      <c r="BF77" s="118"/>
+      <c r="BG77" s="119"/>
+    </row>
+    <row r="78" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="117"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="119"/>
+      <c r="J78" s="117"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="119"/>
+      <c r="AE78" s="120"/>
+      <c r="AF78" s="121"/>
+      <c r="AG78" s="121"/>
+      <c r="AH78" s="122"/>
+      <c r="AL78" s="120"/>
+      <c r="AM78" s="121"/>
+      <c r="AN78" s="121"/>
+      <c r="AO78" s="122"/>
+      <c r="AW78" s="120"/>
+      <c r="AX78" s="121"/>
+      <c r="AY78" s="121"/>
+      <c r="AZ78" s="122"/>
+      <c r="BD78" s="120"/>
+      <c r="BE78" s="121"/>
+      <c r="BF78" s="121"/>
+      <c r="BG78" s="122"/>
+    </row>
+    <row r="79" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="120"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="121"/>
+      <c r="F79" s="122"/>
+      <c r="J79" s="120"/>
+      <c r="K79" s="121"/>
+      <c r="L79" s="121"/>
+      <c r="M79" s="122"/>
+    </row>
+    <row r="87" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP88" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ88" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR88" s="115"/>
+      <c r="AS88" s="115"/>
+      <c r="AT88" s="116"/>
+      <c r="AW88" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX88" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY88" s="115"/>
+      <c r="AZ88" s="115"/>
+      <c r="BA88" s="116"/>
+    </row>
+    <row r="89" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ89" s="117"/>
+      <c r="AR89" s="118"/>
+      <c r="AS89" s="118"/>
+      <c r="AT89" s="119"/>
+      <c r="AX89" s="117"/>
+      <c r="AY89" s="118"/>
+      <c r="AZ89" s="118"/>
+      <c r="BA89" s="119"/>
+    </row>
+    <row r="90" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ90" s="117"/>
+      <c r="AR90" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS90" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT90" s="119"/>
+      <c r="AX90" s="117"/>
+      <c r="AY90" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ90" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA90" s="119"/>
+    </row>
+    <row r="91" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ91" s="117"/>
+      <c r="AR91" s="118"/>
+      <c r="AS91" s="118"/>
+      <c r="AT91" s="119"/>
+      <c r="AX91" s="117"/>
+      <c r="AY91" s="118"/>
+      <c r="AZ91" s="118"/>
+      <c r="BA91" s="119"/>
+    </row>
+    <row r="92" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ92" s="117"/>
+      <c r="AR92" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS92" s="105">
+        <v>26</v>
+      </c>
+      <c r="AT92" s="119"/>
+      <c r="AX92" s="117"/>
+      <c r="AY92" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ92" s="105">
+        <v>25</v>
+      </c>
+      <c r="BA92" s="119"/>
+    </row>
+    <row r="93" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ93" s="117"/>
+      <c r="AR93" s="118"/>
+      <c r="AS93" s="118"/>
+      <c r="AT93" s="119"/>
+      <c r="AX93" s="117"/>
+      <c r="AY93" s="118"/>
+      <c r="AZ93" s="118"/>
+      <c r="BA93" s="119"/>
+    </row>
+    <row r="94" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ94" s="117"/>
+      <c r="AR94" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS94" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT94" s="119"/>
+      <c r="AX94" s="117"/>
+      <c r="AY94" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ94" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA94" s="119"/>
+    </row>
+    <row r="95" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ95" s="117"/>
+      <c r="AR95" s="118"/>
+      <c r="AS95" s="118"/>
+      <c r="AT95" s="119"/>
+      <c r="AX95" s="117"/>
+      <c r="AY95" s="118"/>
+      <c r="AZ95" s="118"/>
+      <c r="BA95" s="119"/>
+    </row>
+    <row r="96" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ96" s="117"/>
+      <c r="AR96" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS96" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT96" s="119"/>
+      <c r="AX96" s="117"/>
+      <c r="AY96" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ96" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA96" s="119"/>
+    </row>
+    <row r="97" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ97" s="117"/>
+      <c r="AR97" s="118"/>
+      <c r="AS97" s="118"/>
+      <c r="AT97" s="119"/>
+      <c r="AX97" s="117"/>
+      <c r="AY97" s="118"/>
+      <c r="AZ97" s="118"/>
+      <c r="BA97" s="119"/>
+    </row>
+    <row r="98" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ98" s="117"/>
+      <c r="AR98" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS98" s="105">
+        <v>123123123</v>
+      </c>
+      <c r="AT98" s="119"/>
+      <c r="AX98" s="117"/>
+      <c r="AY98" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ98" s="105">
+        <v>325487584</v>
+      </c>
+      <c r="BA98" s="119"/>
+    </row>
+    <row r="99" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ99" s="117"/>
+      <c r="AR99" s="118"/>
+      <c r="AS99" s="118"/>
+      <c r="AT99" s="119"/>
+      <c r="AX99" s="117"/>
+      <c r="AY99" s="118"/>
+      <c r="AZ99" s="118"/>
+      <c r="BA99" s="119"/>
+    </row>
+    <row r="100" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ100" s="117"/>
+      <c r="AR100" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS100" s="105">
+        <v>0</v>
+      </c>
+      <c r="AT100" s="119"/>
+      <c r="AX100" s="117"/>
+      <c r="AY100" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ100" s="105">
+        <v>0</v>
+      </c>
+      <c r="BA100" s="119"/>
+    </row>
+    <row r="101" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ101" s="117"/>
+      <c r="AR101" s="118"/>
+      <c r="AS101" s="118"/>
+      <c r="AT101" s="119"/>
+      <c r="AX101" s="117"/>
+      <c r="AY101" s="118"/>
+      <c r="AZ101" s="118"/>
+      <c r="BA101" s="119"/>
+    </row>
+    <row r="102" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ102" s="117"/>
+      <c r="AR102" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS102" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT102" s="119"/>
+      <c r="AX102" s="117"/>
+      <c r="AY102" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ102" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA102" s="119"/>
+    </row>
+    <row r="103" spans="43:53" x14ac:dyDescent="0.25">
+      <c r="AQ103" s="117"/>
+      <c r="AR103" s="118"/>
+      <c r="AS103" s="118"/>
+      <c r="AT103" s="119"/>
+      <c r="AX103" s="117"/>
+      <c r="AY103" s="118"/>
+      <c r="AZ103" s="118"/>
+      <c r="BA103" s="119"/>
+    </row>
+    <row r="104" spans="43:53" x14ac:dyDescent="0.25">
+      <c r="AQ104" s="117"/>
+      <c r="AR104" s="118"/>
+      <c r="AS104" s="118"/>
+      <c r="AT104" s="119"/>
+      <c r="AX104" s="117"/>
+      <c r="AY104" s="118"/>
+      <c r="AZ104" s="118"/>
+      <c r="BA104" s="119"/>
+    </row>
+    <row r="105" spans="43:53" x14ac:dyDescent="0.25">
+      <c r="AQ105" s="117"/>
+      <c r="AR105" s="118"/>
+      <c r="AS105" s="118"/>
+      <c r="AT105" s="119"/>
+      <c r="AX105" s="117"/>
+      <c r="AY105" s="118"/>
+      <c r="AZ105" s="118"/>
+      <c r="BA105" s="119"/>
+    </row>
+    <row r="106" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ106" s="120"/>
+      <c r="AR106" s="121"/>
+      <c r="AS106" s="121"/>
+      <c r="AT106" s="122"/>
+      <c r="AX106" s="120"/>
+      <c r="AY106" s="121"/>
+      <c r="AZ106" s="121"/>
+      <c r="BA106" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SampleProject/seleniumTraining.xlsx
+++ b/SampleProject/seleniumTraining.xlsx
@@ -17,13 +17,15 @@
     <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet8" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="172">
   <si>
     <t>Hello World</t>
   </si>
@@ -578,6 +580,39 @@
   </si>
   <si>
     <t>CLASS VARIABLE</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>CHILD</t>
+  </si>
+  <si>
+    <t>German-S</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>names = string</t>
+  </si>
+  <si>
+    <t>names[3] = Andrew</t>
   </si>
 </sst>
 </file>
@@ -624,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +738,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -1278,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,9 +1355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1324,7 +1362,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1361,33 +1398,44 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1433,6 +1481,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1462,6 +1528,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1502,44 +1577,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1695,6 +1763,119 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Down Arrow 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="1371600"/>
+          <a:ext cx="238125" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Down Arrow 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115300" y="1962150"/>
+          <a:ext cx="238125" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1990,7 +2171,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,320 +2179,327 @@
     <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="78.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="97">
         <v>1</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="97">
         <v>1.5</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="82" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="31" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="31" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="32" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="48">
+      <c r="A7" s="86"/>
+      <c r="B7" s="100">
         <v>2</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="100">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="90" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="34" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="130" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="92"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="38" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="68"/>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="51">
+      <c r="A11" s="86"/>
+      <c r="B11" s="97">
         <v>3</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="97">
         <v>2</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="95"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="87"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="95"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="88"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="96"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="113">
         <v>4</v>
       </c>
-      <c r="E12" s="70"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="70"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="15" t="s">
+      <c r="C15" s="113">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="104"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="104"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="105"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+      <c r="B19" s="97">
         <v>5</v>
       </c>
-      <c r="E14" s="71"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="54">
-        <v>4</v>
-      </c>
-      <c r="C15" s="54">
+      <c r="C19" s="97">
+        <v>2</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="86"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="107"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="86"/>
+      <c r="B23" s="100">
+        <v>6</v>
+      </c>
+      <c r="C23" s="100">
         <v>1.5</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="73"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="73"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="74"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="51">
-        <v>5</v>
-      </c>
-      <c r="C19" s="51">
-        <v>2</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="76"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="76"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="76"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="48">
-        <v>6</v>
-      </c>
-      <c r="C23" s="48">
+      <c r="D23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="86"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="109"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="86"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="110"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="86"/>
+      <c r="B26" s="97">
+        <v>7</v>
+      </c>
+      <c r="C26" s="97">
         <v>1.5</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="78"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="79"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="51">
-        <v>7</v>
-      </c>
-      <c r="C26" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="94" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="31" t="s">
+      <c r="A27" s="86"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="111"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="125" t="s">
+      <c r="A28" s="88"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="81"/>
+      <c r="E28" s="112"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A28"/>
@@ -2328,13 +2516,6 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2361,23 +2542,23 @@
   <sheetData>
     <row r="3" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J4" s="126"/>
-      <c r="K4" s="127"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="36" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J6" s="128"/>
-      <c r="K6" s="129"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="11" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
@@ -2388,130 +2569,130 @@
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="131" t="s">
+      <c r="E12" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
-      <c r="L12" s="131" t="s">
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="L12" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="M12" s="96"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F13" s="99"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F14" s="99"/>
-      <c r="I14" s="101"/>
-      <c r="M14" s="99"/>
-      <c r="P14" s="101"/>
+      <c r="F14" s="48"/>
+      <c r="I14" s="50"/>
+      <c r="M14" s="48"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="101"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="99"/>
-      <c r="G16" s="100" t="s">
+      <c r="F16" s="48"/>
+      <c r="G16" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="101"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="100" t="s">
+      <c r="I16" s="50"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="P16" s="101"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="99"/>
-      <c r="G18" s="100" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="36">
         <v>26</v>
       </c>
-      <c r="I18" s="101"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="100" t="s">
+      <c r="I18" s="50"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="36">
         <v>30</v>
       </c>
-      <c r="P18" s="101"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="101"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="99"/>
-      <c r="G20" s="100" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="101"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="100" t="s">
+      <c r="I20" s="50"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="O20" s="40" t="s">
+      <c r="O20" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="P20" s="101"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="104"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="104"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="25" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J25" t="s">
@@ -2519,81 +2700,515 @@
       </c>
     </row>
     <row r="26" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="I26" s="131" t="s">
+      <c r="I26" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="98"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="47"/>
     </row>
     <row r="27" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="101"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J28" s="99"/>
-      <c r="M28" s="101"/>
+      <c r="J28" s="48"/>
+      <c r="M28" s="50"/>
     </row>
     <row r="29" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="101"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J30" s="99"/>
-      <c r="K30" s="100" t="s">
+      <c r="J30" s="48"/>
+      <c r="K30" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="L30" s="40" t="s">
+      <c r="L30" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="M30" s="101"/>
+      <c r="M30" s="50"/>
     </row>
     <row r="31" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="99"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="101"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
     </row>
     <row r="32" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J32" s="99"/>
-      <c r="K32" s="100" t="s">
+      <c r="J32" s="48"/>
+      <c r="K32" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="36">
         <v>32</v>
       </c>
-      <c r="M32" s="101"/>
+      <c r="M32" s="50"/>
     </row>
     <row r="33" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J33" s="99"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="101"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="50"/>
     </row>
     <row r="34" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J34" s="99"/>
-      <c r="K34" s="100" t="s">
+      <c r="J34" s="48"/>
+      <c r="K34" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="L34" s="40" t="s">
+      <c r="L34" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="M34" s="101"/>
+      <c r="M34" s="50"/>
     </row>
     <row r="35" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="102"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="104"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="50"/>
+      <c r="N7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="48"/>
+      <c r="E10" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="50"/>
+      <c r="N10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="48"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="48"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="48"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="N13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="48"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="48"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E5:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.5703125" style="132" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="136"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="132" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="140">
+        <v>1</v>
+      </c>
+      <c r="F5" s="136">
+        <v>0</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="133" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="141">
+        <v>2</v>
+      </c>
+      <c r="F6" s="136">
+        <v>1</v>
+      </c>
+      <c r="G6" s="134" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="134" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="141">
+        <v>3</v>
+      </c>
+      <c r="F7" s="136">
+        <v>2</v>
+      </c>
+      <c r="G7" s="134" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="134" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="141">
+        <v>4</v>
+      </c>
+      <c r="F8" s="136">
+        <v>3</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="141">
+        <v>5</v>
+      </c>
+      <c r="F9" s="136">
+        <v>4</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="139">
+        <v>5</v>
+      </c>
+      <c r="E10" s="138"/>
+      <c r="F10" s="136">
+        <v>5</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="134"/>
+      <c r="F11" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="134"/>
+      <c r="F12" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="134"/>
+      <c r="F13" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="134"/>
+      <c r="F14" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="138"/>
+      <c r="F15" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="134"/>
+      <c r="F16" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="134"/>
+      <c r="F17" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="135"/>
+      <c r="F18" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="134" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="135" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2803,7 +3418,7 @@
       <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="116" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2823,7 +3438,7 @@
       <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="82"/>
+      <c r="F5" s="116"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2843,18 +3458,18 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>2000</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>1900</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>2400</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <v>2100</v>
       </c>
     </row>
@@ -2862,10 +3477,10 @@
       <c r="A12" s="1">
         <v>1996</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>2800</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <v>2200</v>
       </c>
     </row>
@@ -2873,10 +3488,10 @@
       <c r="A13" s="1">
         <v>2004</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="18">
         <v>3200</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <v>2300</v>
       </c>
     </row>
@@ -2923,10 +3538,10 @@
       <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2937,7 +3552,7 @@
       <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="25" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2945,7 +3560,7 @@
       <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="24" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2953,7 +3568,7 @@
       <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="20" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2961,7 +3576,7 @@
       <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2993,15 +3608,15 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
       <c r="M5" t="s">
         <v>76</v>
       </c>
@@ -3011,40 +3626,40 @@
       <c r="A7" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="J7" s="86" t="s">
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
+      <c r="J7" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="N7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="22" t="s">
         <v>73</v>
       </c>
       <c r="N10" t="s">
@@ -3052,16 +3667,16 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="22" t="s">
         <v>74</v>
       </c>
       <c r="N11" t="s">
@@ -3069,10 +3684,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="41" t="s">
         <v>75</v>
       </c>
       <c r="N12" t="s">
@@ -3080,7 +3695,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="40" t="s">
         <v>87</v>
       </c>
       <c r="B13" t="s">
@@ -3097,31 +3712,31 @@
     </row>
     <row r="19" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
     </row>
     <row r="21" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="94"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="128"/>
     </row>
     <row r="22" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="F23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="L23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3150,25 +3765,25 @@
   <sheetData>
     <row r="6" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3189,290 +3804,290 @@
   <sheetData>
     <row r="3" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="55" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="99"/>
-      <c r="E6" s="100" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="101"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="99"/>
-      <c r="E7" s="100" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="100" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="101"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101" t="s">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="112" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="114" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="99"/>
-      <c r="E11" s="100" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="118" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="N11" s="119"/>
+      <c r="N11" s="68"/>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="99"/>
-      <c r="E12" s="100" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="118" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="119"/>
+      <c r="N12" s="68"/>
     </row>
     <row r="13" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="119"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="68"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="119" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="68" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="118" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="N16" s="119"/>
+      <c r="N16" s="68"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="118" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="N17" s="119"/>
+      <c r="N17" s="68"/>
     </row>
     <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="120" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="121"/>
-      <c r="N18" s="122"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="71"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="104"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="101"/>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="102" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="103"/>
-      <c r="K22" s="104"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3497,16 +4112,16 @@
   <sheetData>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
       <c r="J5" t="s">
         <v>124</v>
       </c>
@@ -3521,16 +4136,16 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
       <c r="K6" t="s">
         <v>132</v>
       </c>
@@ -3539,16 +4154,16 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
-      <c r="C7" s="107" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
       <c r="K7" t="s">
         <v>126</v>
       </c>
@@ -3560,16 +4175,16 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="99"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="123" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
       <c r="K8" t="s">
         <v>133</v>
       </c>
@@ -3578,18 +4193,18 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="111" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="K9" t="s">
         <v>127</v>
       </c>
@@ -3601,14 +4216,14 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="K10" t="s">
         <v>134</v>
       </c>
@@ -3617,16 +4232,16 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="99"/>
-      <c r="C11" s="96" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="101"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="50"/>
       <c r="K11" t="s">
         <v>129</v>
       </c>
@@ -3638,31 +4253,31 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="99" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
       <c r="L12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="96" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="L13" t="s">
         <v>129</v>
       </c>
@@ -3671,33 +4286,33 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="L14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="109" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
       <c r="L15" t="s">
         <v>131</v>
       </c>
@@ -3706,70 +4321,70 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
       <c r="O17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
       <c r="O19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="101"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="102"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="104"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -3794,7 +4409,7 @@
   <dimension ref="B4:BJ106"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AN31" sqref="AN31:AW57"/>
+      <selection activeCell="W62" sqref="W62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3809,3023 +4424,3023 @@
   <sheetData>
     <row r="4" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="116"/>
-      <c r="J5" s="40" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="J5" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="116"/>
-      <c r="Q5" s="40" t="s">
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="Q5" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="R5" s="105" t="s">
+      <c r="R5" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="116"/>
-      <c r="X5" s="40" t="s">
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="X5" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="Y5" s="105" t="s">
+      <c r="Y5" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="116"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="65"/>
     </row>
     <row r="6" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="117"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="119"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="119"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="119"/>
-      <c r="AF6" s="40" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="68"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="68"/>
+      <c r="AF6" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="AG6" s="105" t="s">
+      <c r="AG6" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AH6" s="115"/>
-      <c r="AI6" s="115"/>
-      <c r="AJ6" s="116"/>
-      <c r="AM6" s="40" t="s">
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="65"/>
+      <c r="AM6" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="AN6" s="105" t="s">
+      <c r="AN6" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AO6" s="115"/>
-      <c r="AP6" s="115"/>
-      <c r="AQ6" s="116"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="65"/>
     </row>
     <row r="7" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="117"/>
-      <c r="E7" s="118" t="s">
+      <c r="D7" s="66"/>
+      <c r="E7" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118" t="s">
+      <c r="G7" s="68"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="118" t="s">
+      <c r="N7" s="68"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="T7" s="105" t="s">
+      <c r="T7" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="U7" s="119"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="118" t="s">
+      <c r="U7" s="68"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AA7" s="105" t="s">
+      <c r="AA7" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="AB7" s="119"/>
-      <c r="AG7" s="117"/>
-      <c r="AH7" s="118"/>
-      <c r="AI7" s="118"/>
-      <c r="AJ7" s="119"/>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="118"/>
-      <c r="AP7" s="118"/>
-      <c r="AQ7" s="119"/>
+      <c r="AB7" s="68"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="68"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="67"/>
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="68"/>
     </row>
     <row r="8" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="117"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="119"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="119"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="119"/>
-      <c r="AG8" s="117"/>
-      <c r="AH8" s="118" t="s">
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="68"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="68"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="68"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AI8" s="105" t="s">
+      <c r="AI8" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AJ8" s="119"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="118" t="s">
+      <c r="AJ8" s="68"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AP8" s="105" t="s">
+      <c r="AP8" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="AQ8" s="119"/>
+      <c r="AQ8" s="68"/>
     </row>
     <row r="9" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="117"/>
-      <c r="E9" s="118" t="s">
+      <c r="D9" s="66"/>
+      <c r="E9" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="54">
         <v>26</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118" t="s">
+      <c r="G9" s="68"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="54">
         <v>25</v>
       </c>
-      <c r="N9" s="119"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="118" t="s">
+      <c r="N9" s="68"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="T9" s="105">
+      <c r="T9" s="54">
         <v>26</v>
       </c>
-      <c r="U9" s="119"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="118" t="s">
+      <c r="U9" s="68"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AA9" s="105">
+      <c r="AA9" s="54">
         <v>25</v>
       </c>
-      <c r="AB9" s="119"/>
-      <c r="AG9" s="117"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="119"/>
-      <c r="AN9" s="117"/>
-      <c r="AO9" s="118"/>
-      <c r="AP9" s="118"/>
-      <c r="AQ9" s="119"/>
+      <c r="AB9" s="68"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="68"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="68"/>
     </row>
     <row r="10" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="119"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="119"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="119"/>
-      <c r="AG10" s="117"/>
-      <c r="AH10" s="118" t="s">
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="68"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="68"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="68"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AI10" s="105">
+      <c r="AI10" s="54">
         <v>26</v>
       </c>
-      <c r="AJ10" s="119"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="118" t="s">
+      <c r="AJ10" s="68"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AP10" s="105">
+      <c r="AP10" s="54">
         <v>25</v>
       </c>
-      <c r="AQ10" s="119"/>
-      <c r="AV10" s="40" t="s">
+      <c r="AQ10" s="68"/>
+      <c r="AV10" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="AW10" s="105" t="s">
+      <c r="AW10" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AX10" s="115"/>
-      <c r="AY10" s="115"/>
-      <c r="AZ10" s="116"/>
-      <c r="BC10" s="40" t="s">
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="65"/>
+      <c r="BC10" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="BD10" s="105" t="s">
+      <c r="BD10" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="BE10" s="115"/>
-      <c r="BF10" s="115"/>
-      <c r="BG10" s="116"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="65"/>
     </row>
     <row r="11" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="117"/>
-      <c r="E11" s="118" t="s">
+      <c r="D11" s="66"/>
+      <c r="E11" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118" t="s">
+      <c r="G11" s="68"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="M11" s="105" t="s">
+      <c r="M11" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="118" t="s">
+      <c r="N11" s="68"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="T11" s="105" t="s">
+      <c r="T11" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="U11" s="119"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="118" t="s">
+      <c r="U11" s="68"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AA11" s="105" t="s">
+      <c r="AA11" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AB11" s="119"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="119"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="119"/>
-      <c r="AW11" s="117"/>
-      <c r="AX11" s="118"/>
-      <c r="AY11" s="118"/>
-      <c r="AZ11" s="119"/>
-      <c r="BD11" s="117"/>
-      <c r="BE11" s="118"/>
-      <c r="BF11" s="118"/>
-      <c r="BG11" s="119"/>
+      <c r="AB11" s="68"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="68"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="67"/>
+      <c r="AP11" s="67"/>
+      <c r="AQ11" s="68"/>
+      <c r="AW11" s="66"/>
+      <c r="AX11" s="67"/>
+      <c r="AY11" s="67"/>
+      <c r="AZ11" s="68"/>
+      <c r="BD11" s="66"/>
+      <c r="BE11" s="67"/>
+      <c r="BF11" s="67"/>
+      <c r="BG11" s="68"/>
     </row>
     <row r="12" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="119"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="119"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="119"/>
-      <c r="AG12" s="117"/>
-      <c r="AH12" s="118" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="68"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="68"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AI12" s="105" t="s">
+      <c r="AI12" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AJ12" s="119"/>
-      <c r="AN12" s="117"/>
-      <c r="AO12" s="118" t="s">
+      <c r="AJ12" s="68"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AP12" s="105" t="s">
+      <c r="AP12" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AQ12" s="119"/>
-      <c r="AW12" s="117"/>
-      <c r="AX12" s="118" t="s">
+      <c r="AQ12" s="68"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AY12" s="105" t="s">
+      <c r="AY12" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AZ12" s="119"/>
-      <c r="BD12" s="117"/>
-      <c r="BE12" s="118" t="s">
+      <c r="AZ12" s="68"/>
+      <c r="BD12" s="66"/>
+      <c r="BE12" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="BF12" s="105" t="s">
+      <c r="BF12" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="BG12" s="119"/>
+      <c r="BG12" s="68"/>
     </row>
     <row r="13" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="117"/>
-      <c r="E13" s="118" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118" t="s">
+      <c r="G13" s="68"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="M13" s="105" t="s">
+      <c r="M13" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="N13" s="119"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="118" t="s">
+      <c r="N13" s="68"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="T13" s="105" t="s">
+      <c r="T13" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="U13" s="119"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="118" t="s">
+      <c r="U13" s="68"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AA13" s="105" t="s">
+      <c r="AA13" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AB13" s="119"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="119"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="119"/>
-      <c r="AW13" s="117"/>
-      <c r="AX13" s="118"/>
-      <c r="AY13" s="118"/>
-      <c r="AZ13" s="119"/>
-      <c r="BD13" s="117"/>
-      <c r="BE13" s="118"/>
-      <c r="BF13" s="118"/>
-      <c r="BG13" s="119"/>
+      <c r="AB13" s="68"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="68"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="67"/>
+      <c r="AQ13" s="68"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="67"/>
+      <c r="AY13" s="67"/>
+      <c r="AZ13" s="68"/>
+      <c r="BD13" s="66"/>
+      <c r="BE13" s="67"/>
+      <c r="BF13" s="67"/>
+      <c r="BG13" s="68"/>
     </row>
     <row r="14" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="119"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="119"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="119"/>
-      <c r="AG14" s="117"/>
-      <c r="AH14" s="118" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="68"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="68"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="68"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AI14" s="105" t="s">
+      <c r="AI14" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AJ14" s="119"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="118" t="s">
+      <c r="AJ14" s="68"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AP14" s="105" t="s">
+      <c r="AP14" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AQ14" s="119"/>
-      <c r="AW14" s="117"/>
-      <c r="AX14" s="118" t="s">
+      <c r="AQ14" s="68"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AY14" s="105">
+      <c r="AY14" s="54">
         <v>26</v>
       </c>
-      <c r="AZ14" s="119"/>
-      <c r="BD14" s="117"/>
-      <c r="BE14" s="118" t="s">
+      <c r="AZ14" s="68"/>
+      <c r="BD14" s="66"/>
+      <c r="BE14" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="BF14" s="105">
+      <c r="BF14" s="54">
         <v>25</v>
       </c>
-      <c r="BG14" s="119"/>
+      <c r="BG14" s="68"/>
     </row>
     <row r="15" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="117"/>
-      <c r="E15" s="118" t="s">
+      <c r="D15" s="66"/>
+      <c r="E15" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="54">
         <v>123123123</v>
       </c>
-      <c r="G15" s="119"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="118" t="s">
+      <c r="G15" s="68"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="M15" s="105">
+      <c r="M15" s="54">
         <v>325487584</v>
       </c>
-      <c r="N15" s="119"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="118" t="s">
+      <c r="N15" s="68"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="T15" s="105">
+      <c r="T15" s="54">
         <v>123123123</v>
       </c>
-      <c r="U15" s="119"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="118" t="s">
+      <c r="U15" s="68"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AA15" s="105">
+      <c r="AA15" s="54">
         <v>325487584</v>
       </c>
-      <c r="AB15" s="119"/>
-      <c r="AG15" s="117"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="119"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="119"/>
-      <c r="AW15" s="117"/>
-      <c r="AX15" s="118"/>
-      <c r="AY15" s="118"/>
-      <c r="AZ15" s="119"/>
-      <c r="BD15" s="117"/>
-      <c r="BE15" s="118"/>
-      <c r="BF15" s="118"/>
-      <c r="BG15" s="119"/>
+      <c r="AB15" s="68"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="68"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="67"/>
+      <c r="AP15" s="67"/>
+      <c r="AQ15" s="68"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="68"/>
+      <c r="BD15" s="66"/>
+      <c r="BE15" s="67"/>
+      <c r="BF15" s="67"/>
+      <c r="BG15" s="68"/>
     </row>
     <row r="16" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="119"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="119"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="119"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="118" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="68"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="68"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="68"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AI16" s="105">
+      <c r="AI16" s="54">
         <v>123123123</v>
       </c>
-      <c r="AJ16" s="119"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="118" t="s">
+      <c r="AJ16" s="68"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AP16" s="105">
+      <c r="AP16" s="54">
         <v>325487584</v>
       </c>
-      <c r="AQ16" s="119"/>
-      <c r="AW16" s="117"/>
-      <c r="AX16" s="118" t="s">
+      <c r="AQ16" s="68"/>
+      <c r="AW16" s="66"/>
+      <c r="AX16" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AY16" s="105" t="s">
+      <c r="AY16" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AZ16" s="119"/>
-      <c r="BD16" s="117"/>
-      <c r="BE16" s="118" t="s">
+      <c r="AZ16" s="68"/>
+      <c r="BD16" s="66"/>
+      <c r="BE16" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="BF16" s="105" t="s">
+      <c r="BF16" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="BG16" s="119"/>
+      <c r="BG16" s="68"/>
     </row>
     <row r="17" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="117"/>
-      <c r="E17" s="118" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="54">
         <v>0</v>
       </c>
-      <c r="G17" s="119"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="118" t="s">
+      <c r="G17" s="68"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="M17" s="105">
+      <c r="M17" s="54">
         <v>0</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="118" t="s">
+      <c r="N17" s="68"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="T17" s="105">
+      <c r="T17" s="54">
         <v>0</v>
       </c>
-      <c r="U17" s="119"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="118" t="s">
+      <c r="U17" s="68"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AA17" s="105">
+      <c r="AA17" s="54">
         <v>0</v>
       </c>
-      <c r="AB17" s="119"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="119"/>
-      <c r="AN17" s="117"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="119"/>
-      <c r="AW17" s="117"/>
-      <c r="AX17" s="118"/>
-      <c r="AY17" s="118"/>
-      <c r="AZ17" s="119"/>
-      <c r="BD17" s="117"/>
-      <c r="BE17" s="118"/>
-      <c r="BF17" s="118"/>
-      <c r="BG17" s="119"/>
+      <c r="AB17" s="68"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="68"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="67"/>
+      <c r="AP17" s="67"/>
+      <c r="AQ17" s="68"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="67"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="68"/>
+      <c r="BD17" s="66"/>
+      <c r="BE17" s="67"/>
+      <c r="BF17" s="67"/>
+      <c r="BG17" s="68"/>
     </row>
     <row r="18" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="119"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="119"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="119"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="119"/>
-      <c r="AG18" s="117"/>
-      <c r="AH18" s="118" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="68"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="68"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="68"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AI18" s="105">
+      <c r="AI18" s="54">
         <v>0</v>
       </c>
-      <c r="AJ18" s="119"/>
-      <c r="AN18" s="117"/>
-      <c r="AO18" s="118" t="s">
+      <c r="AJ18" s="68"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AP18" s="105">
+      <c r="AP18" s="54">
         <v>0</v>
       </c>
-      <c r="AQ18" s="119"/>
-      <c r="AW18" s="117"/>
-      <c r="AX18" s="118" t="s">
+      <c r="AQ18" s="68"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AY18" s="105" t="s">
+      <c r="AY18" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AZ18" s="119"/>
-      <c r="BD18" s="117"/>
-      <c r="BE18" s="118" t="s">
+      <c r="AZ18" s="68"/>
+      <c r="BD18" s="66"/>
+      <c r="BE18" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="BF18" s="105" t="s">
+      <c r="BF18" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="BG18" s="119"/>
+      <c r="BG18" s="68"/>
     </row>
     <row r="19" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="117"/>
-      <c r="E19" s="118" t="s">
+      <c r="D19" s="66"/>
+      <c r="E19" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="119"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118" t="s">
+      <c r="G19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="M19" s="105" t="s">
+      <c r="M19" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="N19" s="119"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="118" t="s">
+      <c r="N19" s="68"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="T19" s="105" t="s">
+      <c r="T19" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="U19" s="119"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="118" t="s">
+      <c r="U19" s="68"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AA19" s="105" t="s">
+      <c r="AA19" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AB19" s="119"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="119"/>
-      <c r="AN19" s="117"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="119"/>
-      <c r="AW19" s="117"/>
-      <c r="AX19" s="118"/>
-      <c r="AY19" s="118"/>
-      <c r="AZ19" s="119"/>
-      <c r="BD19" s="117"/>
-      <c r="BE19" s="118"/>
-      <c r="BF19" s="118"/>
-      <c r="BG19" s="119"/>
+      <c r="AB19" s="68"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="68"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="68"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="68"/>
+      <c r="BD19" s="66"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="68"/>
     </row>
     <row r="20" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="119"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="119"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="119"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="118" t="s">
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="68"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="68"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="68"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AI20" s="105" t="s">
+      <c r="AI20" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AJ20" s="119"/>
-      <c r="AN20" s="117"/>
-      <c r="AO20" s="118" t="s">
+      <c r="AJ20" s="68"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AP20" s="105" t="s">
+      <c r="AP20" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AQ20" s="119"/>
-      <c r="AW20" s="117"/>
-      <c r="AX20" s="118" t="s">
+      <c r="AQ20" s="68"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AY20" s="105">
+      <c r="AY20" s="54">
         <v>123123123</v>
       </c>
-      <c r="AZ20" s="119"/>
-      <c r="BD20" s="117"/>
-      <c r="BE20" s="118" t="s">
+      <c r="AZ20" s="68"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="BF20" s="105">
+      <c r="BF20" s="54">
         <v>325487584</v>
       </c>
-      <c r="BG20" s="119"/>
+      <c r="BG20" s="68"/>
     </row>
     <row r="21" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="119"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="119"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="119"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="119"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="119"/>
-      <c r="AN21" s="117"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
-      <c r="AQ21" s="119"/>
-      <c r="AW21" s="117"/>
-      <c r="AX21" s="118"/>
-      <c r="AY21" s="118"/>
-      <c r="AZ21" s="119"/>
-      <c r="BD21" s="117"/>
-      <c r="BE21" s="118"/>
-      <c r="BF21" s="118"/>
-      <c r="BG21" s="119"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="68"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="68"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="67"/>
+      <c r="AJ21" s="68"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="67"/>
+      <c r="AP21" s="67"/>
+      <c r="AQ21" s="68"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="67"/>
+      <c r="AY21" s="67"/>
+      <c r="AZ21" s="68"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="67"/>
+      <c r="BF21" s="67"/>
+      <c r="BG21" s="68"/>
     </row>
     <row r="22" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="117"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="119"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="119"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="119"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="119"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="119"/>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
-      <c r="AQ22" s="119"/>
-      <c r="AW22" s="117"/>
-      <c r="AX22" s="118" t="s">
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="68"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="68"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="68"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="68"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="67"/>
+      <c r="AQ22" s="68"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AY22" s="105">
+      <c r="AY22" s="54">
         <v>0</v>
       </c>
-      <c r="AZ22" s="119"/>
-      <c r="BD22" s="117"/>
-      <c r="BE22" s="118" t="s">
+      <c r="AZ22" s="68"/>
+      <c r="BD22" s="66"/>
+      <c r="BE22" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="BF22" s="105">
+      <c r="BF22" s="54">
         <v>0</v>
       </c>
-      <c r="BG22" s="119"/>
+      <c r="BG22" s="68"/>
     </row>
     <row r="23" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="122"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="122"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="122"/>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="122"/>
-      <c r="AG23" s="117"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="118"/>
-      <c r="AJ23" s="119"/>
-      <c r="AN23" s="117"/>
-      <c r="AO23" s="118"/>
-      <c r="AP23" s="118"/>
-      <c r="AQ23" s="119"/>
-      <c r="AW23" s="117"/>
-      <c r="AX23" s="118"/>
-      <c r="AY23" s="118"/>
-      <c r="AZ23" s="119"/>
-      <c r="BD23" s="117"/>
-      <c r="BE23" s="118"/>
-      <c r="BF23" s="118"/>
-      <c r="BG23" s="119"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="71"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="71"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="71"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="68"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="67"/>
+      <c r="AP23" s="67"/>
+      <c r="AQ23" s="68"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="67"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="68"/>
+      <c r="BD23" s="66"/>
+      <c r="BE23" s="67"/>
+      <c r="BF23" s="67"/>
+      <c r="BG23" s="68"/>
     </row>
     <row r="24" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="121"/>
-      <c r="AJ24" s="122"/>
-      <c r="AN24" s="120"/>
-      <c r="AO24" s="121"/>
-      <c r="AP24" s="121"/>
-      <c r="AQ24" s="122"/>
-      <c r="AW24" s="117"/>
-      <c r="AX24" s="118" t="s">
+      <c r="AG24" s="69"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="71"/>
+      <c r="AN24" s="69"/>
+      <c r="AO24" s="70"/>
+      <c r="AP24" s="70"/>
+      <c r="AQ24" s="71"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AY24" s="105" t="s">
+      <c r="AY24" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AZ24" s="119"/>
-      <c r="BD24" s="117"/>
-      <c r="BE24" s="118" t="s">
+      <c r="AZ24" s="68"/>
+      <c r="BD24" s="66"/>
+      <c r="BE24" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="BF24" s="105" t="s">
+      <c r="BF24" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="BG24" s="119"/>
+      <c r="BG24" s="68"/>
     </row>
     <row r="25" spans="4:59" x14ac:dyDescent="0.25">
-      <c r="AW25" s="117"/>
-      <c r="AX25" s="118"/>
-      <c r="AY25" s="118"/>
-      <c r="AZ25" s="119"/>
-      <c r="BD25" s="117"/>
-      <c r="BE25" s="118"/>
-      <c r="BF25" s="118"/>
-      <c r="BG25" s="119"/>
+      <c r="AW25" s="66"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="68"/>
+      <c r="BD25" s="66"/>
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="68"/>
     </row>
     <row r="26" spans="4:59" x14ac:dyDescent="0.25">
-      <c r="AW26" s="117"/>
-      <c r="AX26" s="118"/>
-      <c r="AY26" s="118"/>
-      <c r="AZ26" s="119"/>
-      <c r="BD26" s="117"/>
-      <c r="BE26" s="118"/>
-      <c r="BF26" s="118"/>
-      <c r="BG26" s="119"/>
+      <c r="AW26" s="66"/>
+      <c r="AX26" s="67"/>
+      <c r="AY26" s="67"/>
+      <c r="AZ26" s="68"/>
+      <c r="BD26" s="66"/>
+      <c r="BE26" s="67"/>
+      <c r="BF26" s="67"/>
+      <c r="BG26" s="68"/>
     </row>
     <row r="27" spans="4:59" x14ac:dyDescent="0.25">
-      <c r="AW27" s="117"/>
-      <c r="AX27" s="118"/>
-      <c r="AY27" s="118"/>
-      <c r="AZ27" s="119"/>
-      <c r="BD27" s="117"/>
-      <c r="BE27" s="118"/>
-      <c r="BF27" s="118"/>
-      <c r="BG27" s="119"/>
+      <c r="AW27" s="66"/>
+      <c r="AX27" s="67"/>
+      <c r="AY27" s="67"/>
+      <c r="AZ27" s="68"/>
+      <c r="BD27" s="66"/>
+      <c r="BE27" s="67"/>
+      <c r="BF27" s="67"/>
+      <c r="BG27" s="68"/>
     </row>
     <row r="28" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AW28" s="120"/>
-      <c r="AX28" s="121"/>
-      <c r="AY28" s="121"/>
-      <c r="AZ28" s="122"/>
-      <c r="BD28" s="120"/>
-      <c r="BE28" s="121"/>
-      <c r="BF28" s="121"/>
-      <c r="BG28" s="122"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="71"/>
+      <c r="BD28" s="69"/>
+      <c r="BE28" s="70"/>
+      <c r="BF28" s="70"/>
+      <c r="BG28" s="71"/>
     </row>
     <row r="30" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="105" t="s">
+      <c r="H31" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="116"/>
-      <c r="N31" s="40" t="s">
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="65"/>
+      <c r="N31" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="O31" s="105" t="s">
+      <c r="O31" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="116"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="65"/>
     </row>
     <row r="32" spans="4:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="117"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="119"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="119"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="68"/>
     </row>
     <row r="33" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="117"/>
-      <c r="I33" s="118" t="s">
+      <c r="H33" s="66"/>
+      <c r="I33" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="105" t="s">
+      <c r="J33" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="119"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="118" t="s">
+      <c r="K33" s="68"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="Q33" s="105" t="s">
+      <c r="Q33" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="R33" s="119"/>
+      <c r="R33" s="68"/>
     </row>
     <row r="34" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="117"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="119"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="119"/>
-      <c r="T34" s="40" t="s">
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="68"/>
+      <c r="T34" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="U34" s="105" t="s">
+      <c r="U34" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="V34" s="115"/>
-      <c r="W34" s="115"/>
-      <c r="X34" s="116"/>
-      <c r="AA34" s="40" t="s">
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="65"/>
+      <c r="AA34" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="AB34" s="105" t="s">
+      <c r="AB34" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AC34" s="115"/>
-      <c r="AD34" s="115"/>
-      <c r="AE34" s="116"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="65"/>
     </row>
     <row r="35" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="117"/>
-      <c r="I35" s="118" t="s">
+      <c r="H35" s="66"/>
+      <c r="I35" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="J35" s="105">
+      <c r="J35" s="54">
         <v>26</v>
       </c>
-      <c r="K35" s="119"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="118" t="s">
+      <c r="K35" s="68"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="Q35" s="105">
+      <c r="Q35" s="54">
         <v>25</v>
       </c>
-      <c r="R35" s="119"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="118"/>
-      <c r="X35" s="119"/>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="118"/>
-      <c r="AD35" s="118"/>
-      <c r="AE35" s="119"/>
-      <c r="AI35" s="40" t="s">
+      <c r="R35" s="68"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="68"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="68"/>
+      <c r="AI35" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="AJ35" s="105" t="s">
+      <c r="AJ35" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AK35" s="115"/>
-      <c r="AL35" s="115"/>
-      <c r="AM35" s="116"/>
-      <c r="AP35" s="40" t="s">
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="65"/>
+      <c r="AP35" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="AQ35" s="105" t="s">
+      <c r="AQ35" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AR35" s="115"/>
-      <c r="AS35" s="115"/>
-      <c r="AT35" s="116"/>
-      <c r="AY35" s="40" t="s">
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="65"/>
+      <c r="AY35" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="AZ35" s="105" t="s">
+      <c r="AZ35" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="BA35" s="115"/>
-      <c r="BB35" s="115"/>
-      <c r="BC35" s="116"/>
-      <c r="BF35" s="40" t="s">
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="65"/>
+      <c r="BF35" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="BG35" s="105" t="s">
+      <c r="BG35" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="BH35" s="115"/>
-      <c r="BI35" s="115"/>
-      <c r="BJ35" s="116"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="64"/>
+      <c r="BJ35" s="65"/>
     </row>
     <row r="36" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="117"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="119"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="119"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="118" t="s">
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="68"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="W36" s="105" t="s">
+      <c r="W36" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="X36" s="119"/>
-      <c r="AB36" s="117"/>
-      <c r="AC36" s="118" t="s">
+      <c r="X36" s="68"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AD36" s="105" t="s">
+      <c r="AD36" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="AE36" s="119"/>
-      <c r="AJ36" s="117"/>
-      <c r="AK36" s="118"/>
-      <c r="AL36" s="118"/>
-      <c r="AM36" s="119"/>
-      <c r="AQ36" s="117"/>
-      <c r="AR36" s="118"/>
-      <c r="AS36" s="118"/>
-      <c r="AT36" s="119"/>
-      <c r="AZ36" s="117"/>
-      <c r="BA36" s="118"/>
-      <c r="BB36" s="118"/>
-      <c r="BC36" s="119"/>
-      <c r="BG36" s="117"/>
-      <c r="BH36" s="118"/>
-      <c r="BI36" s="118"/>
-      <c r="BJ36" s="119"/>
+      <c r="AE36" s="68"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="68"/>
+      <c r="AQ36" s="66"/>
+      <c r="AR36" s="67"/>
+      <c r="AS36" s="67"/>
+      <c r="AT36" s="68"/>
+      <c r="AZ36" s="66"/>
+      <c r="BA36" s="67"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="68"/>
+      <c r="BG36" s="66"/>
+      <c r="BH36" s="67"/>
+      <c r="BI36" s="67"/>
+      <c r="BJ36" s="68"/>
     </row>
     <row r="37" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="117"/>
-      <c r="I37" s="118" t="s">
+      <c r="H37" s="66"/>
+      <c r="I37" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="J37" s="105" t="s">
+      <c r="J37" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="K37" s="119"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="118" t="s">
+      <c r="K37" s="68"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="Q37" s="105" t="s">
+      <c r="Q37" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="R37" s="119"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="118"/>
-      <c r="W37" s="118"/>
-      <c r="X37" s="119"/>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="118"/>
-      <c r="AD37" s="118"/>
-      <c r="AE37" s="119"/>
-      <c r="AJ37" s="117"/>
-      <c r="AK37" s="118" t="s">
+      <c r="R37" s="68"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="68"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="67"/>
+      <c r="AE37" s="68"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AL37" s="105" t="s">
+      <c r="AL37" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AM37" s="119"/>
-      <c r="AQ37" s="117"/>
-      <c r="AR37" s="118" t="s">
+      <c r="AM37" s="68"/>
+      <c r="AQ37" s="66"/>
+      <c r="AR37" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AS37" s="105" t="s">
+      <c r="AS37" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="AT37" s="119"/>
-      <c r="AZ37" s="117"/>
-      <c r="BA37" s="118" t="s">
+      <c r="AT37" s="68"/>
+      <c r="AZ37" s="66"/>
+      <c r="BA37" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="BB37" s="105" t="s">
+      <c r="BB37" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="BC37" s="119"/>
-      <c r="BG37" s="117"/>
-      <c r="BH37" s="118" t="s">
+      <c r="BC37" s="68"/>
+      <c r="BG37" s="66"/>
+      <c r="BH37" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="BI37" s="105" t="s">
+      <c r="BI37" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="BJ37" s="119"/>
+      <c r="BJ37" s="68"/>
     </row>
     <row r="38" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="117"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="119"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="118"/>
-      <c r="R38" s="119"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="118" t="s">
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="68"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="W38" s="105">
+      <c r="W38" s="54">
         <v>26</v>
       </c>
-      <c r="X38" s="119"/>
-      <c r="AB38" s="117"/>
-      <c r="AC38" s="118" t="s">
+      <c r="X38" s="68"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AD38" s="105">
+      <c r="AD38" s="54">
         <v>25</v>
       </c>
-      <c r="AE38" s="119"/>
-      <c r="AJ38" s="117"/>
-      <c r="AK38" s="118"/>
-      <c r="AL38" s="118"/>
-      <c r="AM38" s="119"/>
-      <c r="AQ38" s="117"/>
-      <c r="AR38" s="118"/>
-      <c r="AS38" s="118"/>
-      <c r="AT38" s="119"/>
-      <c r="AZ38" s="117"/>
-      <c r="BA38" s="118"/>
-      <c r="BB38" s="118"/>
-      <c r="BC38" s="119"/>
-      <c r="BG38" s="117"/>
-      <c r="BH38" s="118"/>
-      <c r="BI38" s="118"/>
-      <c r="BJ38" s="119"/>
+      <c r="AE38" s="68"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="67"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="68"/>
+      <c r="AQ38" s="66"/>
+      <c r="AR38" s="67"/>
+      <c r="AS38" s="67"/>
+      <c r="AT38" s="68"/>
+      <c r="AZ38" s="66"/>
+      <c r="BA38" s="67"/>
+      <c r="BB38" s="67"/>
+      <c r="BC38" s="68"/>
+      <c r="BG38" s="66"/>
+      <c r="BH38" s="67"/>
+      <c r="BI38" s="67"/>
+      <c r="BJ38" s="68"/>
     </row>
     <row r="39" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="117"/>
-      <c r="I39" s="118" t="s">
+      <c r="H39" s="66"/>
+      <c r="I39" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="J39" s="105" t="s">
+      <c r="J39" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="K39" s="119"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="118" t="s">
+      <c r="K39" s="68"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="Q39" s="105" t="s">
+      <c r="Q39" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="R39" s="119"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="118"/>
-      <c r="W39" s="118"/>
-      <c r="X39" s="119"/>
-      <c r="AB39" s="117"/>
-      <c r="AC39" s="118"/>
-      <c r="AD39" s="118"/>
-      <c r="AE39" s="119"/>
-      <c r="AJ39" s="117"/>
-      <c r="AK39" s="118" t="s">
+      <c r="R39" s="68"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="68"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="68"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AL39" s="105">
+      <c r="AL39" s="54">
         <v>26</v>
       </c>
-      <c r="AM39" s="119"/>
-      <c r="AQ39" s="117"/>
-      <c r="AR39" s="118" t="s">
+      <c r="AM39" s="68"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AS39" s="105">
+      <c r="AS39" s="54">
         <v>25</v>
       </c>
-      <c r="AT39" s="119"/>
-      <c r="AZ39" s="117"/>
-      <c r="BA39" s="118" t="s">
+      <c r="AT39" s="68"/>
+      <c r="AZ39" s="66"/>
+      <c r="BA39" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="BB39" s="105">
+      <c r="BB39" s="54">
         <v>26</v>
       </c>
-      <c r="BC39" s="119"/>
-      <c r="BG39" s="117"/>
-      <c r="BH39" s="118" t="s">
+      <c r="BC39" s="68"/>
+      <c r="BG39" s="66"/>
+      <c r="BH39" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="BI39" s="105">
+      <c r="BI39" s="54">
         <v>25</v>
       </c>
-      <c r="BJ39" s="119"/>
+      <c r="BJ39" s="68"/>
     </row>
     <row r="40" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="117"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="119"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="119"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="118" t="s">
+      <c r="H40" s="66"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="68"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="68"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="W40" s="105" t="s">
+      <c r="W40" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="X40" s="119"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="118" t="s">
+      <c r="X40" s="68"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AD40" s="105" t="s">
+      <c r="AD40" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AE40" s="119"/>
-      <c r="AJ40" s="117"/>
-      <c r="AK40" s="118"/>
-      <c r="AL40" s="118"/>
-      <c r="AM40" s="119"/>
-      <c r="AQ40" s="117"/>
-      <c r="AR40" s="118"/>
-      <c r="AS40" s="118"/>
-      <c r="AT40" s="119"/>
-      <c r="AZ40" s="117"/>
-      <c r="BA40" s="118"/>
-      <c r="BB40" s="118"/>
-      <c r="BC40" s="119"/>
-      <c r="BG40" s="117"/>
-      <c r="BH40" s="118"/>
-      <c r="BI40" s="118"/>
-      <c r="BJ40" s="119"/>
+      <c r="AE40" s="68"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="67"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="68"/>
+      <c r="AQ40" s="66"/>
+      <c r="AR40" s="67"/>
+      <c r="AS40" s="67"/>
+      <c r="AT40" s="68"/>
+      <c r="AZ40" s="66"/>
+      <c r="BA40" s="67"/>
+      <c r="BB40" s="67"/>
+      <c r="BC40" s="68"/>
+      <c r="BG40" s="66"/>
+      <c r="BH40" s="67"/>
+      <c r="BI40" s="67"/>
+      <c r="BJ40" s="68"/>
     </row>
     <row r="41" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="117"/>
-      <c r="I41" s="118" t="s">
+      <c r="H41" s="66"/>
+      <c r="I41" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="105">
+      <c r="J41" s="54">
         <v>123123123</v>
       </c>
-      <c r="K41" s="119"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="118" t="s">
+      <c r="K41" s="68"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="Q41" s="105">
+      <c r="Q41" s="54">
         <v>325487584</v>
       </c>
-      <c r="R41" s="119"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="118"/>
-      <c r="W41" s="118"/>
-      <c r="X41" s="119"/>
-      <c r="AB41" s="117"/>
-      <c r="AC41" s="118"/>
-      <c r="AD41" s="118"/>
-      <c r="AE41" s="119"/>
-      <c r="AJ41" s="117"/>
-      <c r="AK41" s="118" t="s">
+      <c r="R41" s="68"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="68"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="68"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AL41" s="105" t="s">
+      <c r="AL41" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AM41" s="119"/>
-      <c r="AQ41" s="117"/>
-      <c r="AR41" s="118" t="s">
+      <c r="AM41" s="68"/>
+      <c r="AQ41" s="66"/>
+      <c r="AR41" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AS41" s="105" t="s">
+      <c r="AS41" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AT41" s="119"/>
-      <c r="AZ41" s="117"/>
-      <c r="BA41" s="118" t="s">
+      <c r="AT41" s="68"/>
+      <c r="AZ41" s="66"/>
+      <c r="BA41" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="BB41" s="105" t="s">
+      <c r="BB41" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="BC41" s="119"/>
-      <c r="BG41" s="117"/>
-      <c r="BH41" s="118" t="s">
+      <c r="BC41" s="68"/>
+      <c r="BG41" s="66"/>
+      <c r="BH41" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="BI41" s="105" t="s">
+      <c r="BI41" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="BJ41" s="119"/>
+      <c r="BJ41" s="68"/>
     </row>
     <row r="42" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="119"/>
-      <c r="O42" s="117"/>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="119"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="118" t="s">
+      <c r="H42" s="66"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="68"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="W42" s="105" t="s">
+      <c r="W42" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="X42" s="119"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="118" t="s">
+      <c r="X42" s="68"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AD42" s="105" t="s">
+      <c r="AD42" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AE42" s="119"/>
-      <c r="AJ42" s="117"/>
-      <c r="AK42" s="118"/>
-      <c r="AL42" s="118"/>
-      <c r="AM42" s="119"/>
-      <c r="AQ42" s="117"/>
-      <c r="AR42" s="118"/>
-      <c r="AS42" s="118"/>
-      <c r="AT42" s="119"/>
-      <c r="AZ42" s="117"/>
-      <c r="BA42" s="118"/>
-      <c r="BB42" s="118"/>
-      <c r="BC42" s="119"/>
-      <c r="BG42" s="117"/>
-      <c r="BH42" s="118"/>
-      <c r="BI42" s="118"/>
-      <c r="BJ42" s="119"/>
+      <c r="AE42" s="68"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="67"/>
+      <c r="AL42" s="67"/>
+      <c r="AM42" s="68"/>
+      <c r="AQ42" s="66"/>
+      <c r="AR42" s="67"/>
+      <c r="AS42" s="67"/>
+      <c r="AT42" s="68"/>
+      <c r="AZ42" s="66"/>
+      <c r="BA42" s="67"/>
+      <c r="BB42" s="67"/>
+      <c r="BC42" s="68"/>
+      <c r="BG42" s="66"/>
+      <c r="BH42" s="67"/>
+      <c r="BI42" s="67"/>
+      <c r="BJ42" s="68"/>
     </row>
     <row r="43" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="117"/>
-      <c r="I43" s="118" t="s">
+      <c r="H43" s="66"/>
+      <c r="I43" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="J43" s="105">
+      <c r="J43" s="54">
         <v>0</v>
       </c>
-      <c r="K43" s="119"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="118" t="s">
+      <c r="K43" s="68"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="Q43" s="105">
+      <c r="Q43" s="54">
         <v>0</v>
       </c>
-      <c r="R43" s="119"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="119"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="119"/>
-      <c r="AJ43" s="117"/>
-      <c r="AK43" s="118" t="s">
+      <c r="R43" s="68"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="68"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="67"/>
+      <c r="AD43" s="67"/>
+      <c r="AE43" s="68"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AL43" s="105" t="s">
+      <c r="AL43" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AM43" s="119"/>
-      <c r="AQ43" s="117"/>
-      <c r="AR43" s="118" t="s">
+      <c r="AM43" s="68"/>
+      <c r="AQ43" s="66"/>
+      <c r="AR43" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AS43" s="105" t="s">
+      <c r="AS43" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AT43" s="119"/>
-      <c r="AZ43" s="117"/>
-      <c r="BA43" s="118" t="s">
+      <c r="AT43" s="68"/>
+      <c r="AZ43" s="66"/>
+      <c r="BA43" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="BB43" s="105" t="s">
+      <c r="BB43" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="BC43" s="119"/>
-      <c r="BG43" s="117"/>
-      <c r="BH43" s="118" t="s">
+      <c r="BC43" s="68"/>
+      <c r="BG43" s="66"/>
+      <c r="BH43" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="BI43" s="105" t="s">
+      <c r="BI43" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="BJ43" s="119"/>
+      <c r="BJ43" s="68"/>
     </row>
     <row r="44" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H44" s="117"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="119"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="119"/>
-      <c r="U44" s="117"/>
-      <c r="V44" s="118" t="s">
+      <c r="H44" s="66"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="68"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="68"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="W44" s="105">
+      <c r="W44" s="54">
         <v>123123123</v>
       </c>
-      <c r="X44" s="119"/>
-      <c r="AB44" s="117"/>
-      <c r="AC44" s="118" t="s">
+      <c r="X44" s="68"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AD44" s="105">
+      <c r="AD44" s="54">
         <v>325487584</v>
       </c>
-      <c r="AE44" s="119"/>
-      <c r="AJ44" s="117"/>
-      <c r="AK44" s="118"/>
-      <c r="AL44" s="118"/>
-      <c r="AM44" s="119"/>
-      <c r="AQ44" s="117"/>
-      <c r="AR44" s="118"/>
-      <c r="AS44" s="118"/>
-      <c r="AT44" s="119"/>
-      <c r="AZ44" s="117"/>
-      <c r="BA44" s="118"/>
-      <c r="BB44" s="118"/>
-      <c r="BC44" s="119"/>
-      <c r="BG44" s="117"/>
-      <c r="BH44" s="118"/>
-      <c r="BI44" s="118"/>
-      <c r="BJ44" s="119"/>
+      <c r="AE44" s="68"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="67"/>
+      <c r="AL44" s="67"/>
+      <c r="AM44" s="68"/>
+      <c r="AQ44" s="66"/>
+      <c r="AR44" s="67"/>
+      <c r="AS44" s="67"/>
+      <c r="AT44" s="68"/>
+      <c r="AZ44" s="66"/>
+      <c r="BA44" s="67"/>
+      <c r="BB44" s="67"/>
+      <c r="BC44" s="68"/>
+      <c r="BG44" s="66"/>
+      <c r="BH44" s="67"/>
+      <c r="BI44" s="67"/>
+      <c r="BJ44" s="68"/>
     </row>
     <row r="45" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="117"/>
-      <c r="I45" s="118" t="s">
+      <c r="H45" s="66"/>
+      <c r="I45" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="J45" s="105" t="s">
+      <c r="J45" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="K45" s="119"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="118" t="s">
+      <c r="K45" s="68"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="Q45" s="105" t="s">
+      <c r="Q45" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="R45" s="119"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="118"/>
-      <c r="W45" s="118"/>
-      <c r="X45" s="119"/>
-      <c r="AB45" s="117"/>
-      <c r="AC45" s="118"/>
-      <c r="AD45" s="118"/>
-      <c r="AE45" s="119"/>
-      <c r="AJ45" s="117"/>
-      <c r="AK45" s="118" t="s">
+      <c r="R45" s="68"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="68"/>
+      <c r="AB45" s="66"/>
+      <c r="AC45" s="67"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="68"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AL45" s="105">
+      <c r="AL45" s="54">
         <v>123123123</v>
       </c>
-      <c r="AM45" s="119"/>
-      <c r="AQ45" s="117"/>
-      <c r="AR45" s="118" t="s">
+      <c r="AM45" s="68"/>
+      <c r="AQ45" s="66"/>
+      <c r="AR45" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AS45" s="105">
+      <c r="AS45" s="54">
         <v>325487584</v>
       </c>
-      <c r="AT45" s="119"/>
-      <c r="AZ45" s="117"/>
-      <c r="BA45" s="118" t="s">
+      <c r="AT45" s="68"/>
+      <c r="AZ45" s="66"/>
+      <c r="BA45" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="BB45" s="105">
+      <c r="BB45" s="54">
         <v>123123123</v>
       </c>
-      <c r="BC45" s="119"/>
-      <c r="BG45" s="117"/>
-      <c r="BH45" s="118" t="s">
+      <c r="BC45" s="68"/>
+      <c r="BG45" s="66"/>
+      <c r="BH45" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="BI45" s="105">
+      <c r="BI45" s="54">
         <v>325487584</v>
       </c>
-      <c r="BJ45" s="119"/>
+      <c r="BJ45" s="68"/>
     </row>
     <row r="46" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="117"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="119"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="119"/>
-      <c r="U46" s="117"/>
-      <c r="V46" s="118" t="s">
+      <c r="H46" s="66"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="68"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="W46" s="105">
+      <c r="W46" s="54">
         <v>0</v>
       </c>
-      <c r="X46" s="119"/>
-      <c r="AB46" s="117"/>
-      <c r="AC46" s="118" t="s">
+      <c r="X46" s="68"/>
+      <c r="AB46" s="66"/>
+      <c r="AC46" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AD46" s="105">
+      <c r="AD46" s="54">
         <v>0</v>
       </c>
-      <c r="AE46" s="119"/>
-      <c r="AJ46" s="117"/>
-      <c r="AK46" s="118"/>
-      <c r="AL46" s="118"/>
-      <c r="AM46" s="119"/>
-      <c r="AQ46" s="117"/>
-      <c r="AR46" s="118"/>
-      <c r="AS46" s="118"/>
-      <c r="AT46" s="119"/>
-      <c r="AZ46" s="117"/>
-      <c r="BA46" s="118"/>
-      <c r="BB46" s="118"/>
-      <c r="BC46" s="119"/>
-      <c r="BG46" s="117"/>
-      <c r="BH46" s="118"/>
-      <c r="BI46" s="118"/>
-      <c r="BJ46" s="119"/>
+      <c r="AE46" s="68"/>
+      <c r="AJ46" s="66"/>
+      <c r="AK46" s="67"/>
+      <c r="AL46" s="67"/>
+      <c r="AM46" s="68"/>
+      <c r="AQ46" s="66"/>
+      <c r="AR46" s="67"/>
+      <c r="AS46" s="67"/>
+      <c r="AT46" s="68"/>
+      <c r="AZ46" s="66"/>
+      <c r="BA46" s="67"/>
+      <c r="BB46" s="67"/>
+      <c r="BC46" s="68"/>
+      <c r="BG46" s="66"/>
+      <c r="BH46" s="67"/>
+      <c r="BI46" s="67"/>
+      <c r="BJ46" s="68"/>
     </row>
     <row r="47" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="117"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="119"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="119"/>
-      <c r="U47" s="117"/>
-      <c r="V47" s="118"/>
-      <c r="W47" s="118"/>
-      <c r="X47" s="119"/>
-      <c r="AB47" s="117"/>
-      <c r="AC47" s="118"/>
-      <c r="AD47" s="118"/>
-      <c r="AE47" s="119"/>
-      <c r="AJ47" s="117"/>
-      <c r="AK47" s="118" t="s">
+      <c r="H47" s="66"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="68"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="68"/>
+      <c r="U47" s="66"/>
+      <c r="V47" s="67"/>
+      <c r="W47" s="67"/>
+      <c r="X47" s="68"/>
+      <c r="AB47" s="66"/>
+      <c r="AC47" s="67"/>
+      <c r="AD47" s="67"/>
+      <c r="AE47" s="68"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AL47" s="105">
+      <c r="AL47" s="54">
         <v>0</v>
       </c>
-      <c r="AM47" s="119"/>
-      <c r="AQ47" s="117"/>
-      <c r="AR47" s="118" t="s">
+      <c r="AM47" s="68"/>
+      <c r="AQ47" s="66"/>
+      <c r="AR47" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AS47" s="105">
+      <c r="AS47" s="54">
         <v>0</v>
       </c>
-      <c r="AT47" s="119"/>
-      <c r="AZ47" s="117"/>
-      <c r="BA47" s="118" t="s">
+      <c r="AT47" s="68"/>
+      <c r="AZ47" s="66"/>
+      <c r="BA47" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="BB47" s="105">
+      <c r="BB47" s="54">
         <v>0</v>
       </c>
-      <c r="BC47" s="119"/>
-      <c r="BG47" s="117"/>
-      <c r="BH47" s="118" t="s">
+      <c r="BC47" s="68"/>
+      <c r="BG47" s="66"/>
+      <c r="BH47" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="BI47" s="105">
+      <c r="BI47" s="54">
         <v>0</v>
       </c>
-      <c r="BJ47" s="119"/>
+      <c r="BJ47" s="68"/>
     </row>
     <row r="48" spans="8:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="117"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="119"/>
-      <c r="O48" s="117"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="119"/>
-      <c r="U48" s="117"/>
-      <c r="V48" s="118" t="s">
+      <c r="H48" s="66"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="68"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="W48" s="105" t="s">
+      <c r="W48" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="X48" s="119"/>
-      <c r="AB48" s="117"/>
-      <c r="AC48" s="118" t="s">
+      <c r="X48" s="68"/>
+      <c r="AB48" s="66"/>
+      <c r="AC48" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AD48" s="105" t="s">
+      <c r="AD48" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AE48" s="119"/>
-      <c r="AJ48" s="117"/>
-      <c r="AK48" s="118"/>
-      <c r="AL48" s="118"/>
-      <c r="AM48" s="119"/>
-      <c r="AQ48" s="117"/>
-      <c r="AR48" s="118"/>
-      <c r="AS48" s="118"/>
-      <c r="AT48" s="119"/>
-      <c r="AZ48" s="117"/>
-      <c r="BA48" s="118"/>
-      <c r="BB48" s="118"/>
-      <c r="BC48" s="119"/>
-      <c r="BG48" s="117"/>
-      <c r="BH48" s="118"/>
-      <c r="BI48" s="118"/>
-      <c r="BJ48" s="119"/>
+      <c r="AE48" s="68"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="67"/>
+      <c r="AL48" s="67"/>
+      <c r="AM48" s="68"/>
+      <c r="AQ48" s="66"/>
+      <c r="AR48" s="67"/>
+      <c r="AS48" s="67"/>
+      <c r="AT48" s="68"/>
+      <c r="AZ48" s="66"/>
+      <c r="BA48" s="67"/>
+      <c r="BB48" s="67"/>
+      <c r="BC48" s="68"/>
+      <c r="BG48" s="66"/>
+      <c r="BH48" s="67"/>
+      <c r="BI48" s="67"/>
+      <c r="BJ48" s="68"/>
     </row>
     <row r="49" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="120"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="122"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="121"/>
-      <c r="R49" s="122"/>
-      <c r="U49" s="117"/>
-      <c r="V49" s="118"/>
-      <c r="W49" s="118"/>
-      <c r="X49" s="119"/>
-      <c r="AB49" s="117"/>
-      <c r="AC49" s="118"/>
-      <c r="AD49" s="118"/>
-      <c r="AE49" s="119"/>
-      <c r="AJ49" s="117"/>
-      <c r="AK49" s="118" t="s">
+      <c r="H49" s="69"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="71"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="71"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
+      <c r="X49" s="68"/>
+      <c r="AB49" s="66"/>
+      <c r="AC49" s="67"/>
+      <c r="AD49" s="67"/>
+      <c r="AE49" s="68"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AL49" s="105" t="s">
+      <c r="AL49" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AM49" s="119"/>
-      <c r="AQ49" s="117"/>
-      <c r="AR49" s="118" t="s">
+      <c r="AM49" s="68"/>
+      <c r="AQ49" s="66"/>
+      <c r="AR49" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AS49" s="105" t="s">
+      <c r="AS49" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AT49" s="119"/>
-      <c r="AZ49" s="117"/>
-      <c r="BA49" s="118" t="s">
+      <c r="AT49" s="68"/>
+      <c r="AZ49" s="66"/>
+      <c r="BA49" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="BB49" s="105" t="s">
+      <c r="BB49" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="BC49" s="119"/>
-      <c r="BG49" s="117"/>
-      <c r="BH49" s="118" t="s">
+      <c r="BC49" s="68"/>
+      <c r="BG49" s="66"/>
+      <c r="BH49" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="BI49" s="105" t="s">
+      <c r="BI49" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="BJ49" s="119"/>
+      <c r="BJ49" s="68"/>
     </row>
     <row r="50" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="U50" s="117"/>
-      <c r="V50" s="118"/>
-      <c r="W50" s="118"/>
-      <c r="X50" s="119"/>
-      <c r="AB50" s="117"/>
-      <c r="AC50" s="118"/>
-      <c r="AD50" s="118"/>
-      <c r="AE50" s="119"/>
-      <c r="AJ50" s="117"/>
-      <c r="AK50" s="118"/>
-      <c r="AL50" s="118"/>
-      <c r="AM50" s="119"/>
-      <c r="AQ50" s="117"/>
-      <c r="AR50" s="118"/>
-      <c r="AS50" s="118"/>
-      <c r="AT50" s="119"/>
-      <c r="AZ50" s="117"/>
-      <c r="BA50" s="118"/>
-      <c r="BB50" s="118"/>
-      <c r="BC50" s="119"/>
-      <c r="BG50" s="117"/>
-      <c r="BH50" s="118"/>
-      <c r="BI50" s="118"/>
-      <c r="BJ50" s="119"/>
+      <c r="U50" s="66"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
+      <c r="X50" s="68"/>
+      <c r="AB50" s="66"/>
+      <c r="AC50" s="67"/>
+      <c r="AD50" s="67"/>
+      <c r="AE50" s="68"/>
+      <c r="AJ50" s="66"/>
+      <c r="AK50" s="67"/>
+      <c r="AL50" s="67"/>
+      <c r="AM50" s="68"/>
+      <c r="AQ50" s="66"/>
+      <c r="AR50" s="67"/>
+      <c r="AS50" s="67"/>
+      <c r="AT50" s="68"/>
+      <c r="AZ50" s="66"/>
+      <c r="BA50" s="67"/>
+      <c r="BB50" s="67"/>
+      <c r="BC50" s="68"/>
+      <c r="BG50" s="66"/>
+      <c r="BH50" s="67"/>
+      <c r="BI50" s="67"/>
+      <c r="BJ50" s="68"/>
     </row>
     <row r="51" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="U51" s="117"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="118"/>
-      <c r="X51" s="119"/>
-      <c r="AB51" s="117"/>
-      <c r="AC51" s="118"/>
-      <c r="AD51" s="118"/>
-      <c r="AE51" s="119"/>
-      <c r="AJ51" s="117"/>
-      <c r="AK51" s="118"/>
-      <c r="AL51" s="118"/>
-      <c r="AM51" s="119"/>
-      <c r="AQ51" s="117"/>
-      <c r="AR51" s="118"/>
-      <c r="AS51" s="118"/>
-      <c r="AT51" s="119"/>
-      <c r="AZ51" s="117"/>
-      <c r="BA51" s="118"/>
-      <c r="BB51" s="118"/>
-      <c r="BC51" s="119"/>
-      <c r="BG51" s="117"/>
-      <c r="BH51" s="118"/>
-      <c r="BI51" s="118"/>
-      <c r="BJ51" s="119"/>
+      <c r="U51" s="66"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="68"/>
+      <c r="AB51" s="66"/>
+      <c r="AC51" s="67"/>
+      <c r="AD51" s="67"/>
+      <c r="AE51" s="68"/>
+      <c r="AJ51" s="66"/>
+      <c r="AK51" s="67"/>
+      <c r="AL51" s="67"/>
+      <c r="AM51" s="68"/>
+      <c r="AQ51" s="66"/>
+      <c r="AR51" s="67"/>
+      <c r="AS51" s="67"/>
+      <c r="AT51" s="68"/>
+      <c r="AZ51" s="66"/>
+      <c r="BA51" s="67"/>
+      <c r="BB51" s="67"/>
+      <c r="BC51" s="68"/>
+      <c r="BG51" s="66"/>
+      <c r="BH51" s="67"/>
+      <c r="BI51" s="67"/>
+      <c r="BJ51" s="68"/>
     </row>
     <row r="52" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U52" s="120"/>
-      <c r="V52" s="121"/>
-      <c r="W52" s="121"/>
-      <c r="X52" s="122"/>
-      <c r="AB52" s="120"/>
-      <c r="AC52" s="121"/>
-      <c r="AD52" s="121"/>
-      <c r="AE52" s="122"/>
-      <c r="AJ52" s="117"/>
-      <c r="AK52" s="118"/>
-      <c r="AL52" s="118"/>
-      <c r="AM52" s="119"/>
-      <c r="AQ52" s="117"/>
-      <c r="AR52" s="118"/>
-      <c r="AS52" s="118"/>
-      <c r="AT52" s="119"/>
-      <c r="AZ52" s="117"/>
-      <c r="BA52" s="118"/>
-      <c r="BB52" s="118"/>
-      <c r="BC52" s="119"/>
-      <c r="BG52" s="117"/>
-      <c r="BH52" s="118"/>
-      <c r="BI52" s="118"/>
-      <c r="BJ52" s="119"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="71"/>
+      <c r="AB52" s="69"/>
+      <c r="AC52" s="70"/>
+      <c r="AD52" s="70"/>
+      <c r="AE52" s="71"/>
+      <c r="AJ52" s="66"/>
+      <c r="AK52" s="67"/>
+      <c r="AL52" s="67"/>
+      <c r="AM52" s="68"/>
+      <c r="AQ52" s="66"/>
+      <c r="AR52" s="67"/>
+      <c r="AS52" s="67"/>
+      <c r="AT52" s="68"/>
+      <c r="AZ52" s="66"/>
+      <c r="BA52" s="67"/>
+      <c r="BB52" s="67"/>
+      <c r="BC52" s="68"/>
+      <c r="BG52" s="66"/>
+      <c r="BH52" s="67"/>
+      <c r="BI52" s="67"/>
+      <c r="BJ52" s="68"/>
     </row>
     <row r="53" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ53" s="120"/>
-      <c r="AK53" s="121"/>
-      <c r="AL53" s="121"/>
-      <c r="AM53" s="122"/>
-      <c r="AQ53" s="120"/>
-      <c r="AR53" s="121"/>
-      <c r="AS53" s="121"/>
-      <c r="AT53" s="122"/>
-      <c r="AZ53" s="120"/>
-      <c r="BA53" s="121"/>
-      <c r="BB53" s="121"/>
-      <c r="BC53" s="122"/>
-      <c r="BG53" s="120"/>
-      <c r="BH53" s="121"/>
-      <c r="BI53" s="121"/>
-      <c r="BJ53" s="122"/>
+      <c r="AJ53" s="69"/>
+      <c r="AK53" s="70"/>
+      <c r="AL53" s="70"/>
+      <c r="AM53" s="71"/>
+      <c r="AQ53" s="69"/>
+      <c r="AR53" s="70"/>
+      <c r="AS53" s="70"/>
+      <c r="AT53" s="71"/>
+      <c r="AZ53" s="69"/>
+      <c r="BA53" s="70"/>
+      <c r="BB53" s="70"/>
+      <c r="BC53" s="71"/>
+      <c r="BG53" s="69"/>
+      <c r="BH53" s="70"/>
+      <c r="BI53" s="70"/>
+      <c r="BJ53" s="71"/>
     </row>
     <row r="54" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O55" s="40" t="s">
+      <c r="O55" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="P55" s="105" t="s">
+      <c r="P55" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="Q55" s="115"/>
-      <c r="R55" s="115"/>
-      <c r="S55" s="116"/>
-      <c r="V55" s="40" t="s">
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="65"/>
+      <c r="V55" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="W55" s="105" t="s">
+      <c r="W55" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="X55" s="115"/>
-      <c r="Y55" s="115"/>
-      <c r="Z55" s="116"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="64"/>
+      <c r="Z55" s="65"/>
     </row>
     <row r="56" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P56" s="117"/>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="119"/>
-      <c r="W56" s="117"/>
-      <c r="X56" s="118"/>
-      <c r="Y56" s="118"/>
-      <c r="Z56" s="119"/>
+      <c r="P56" s="66"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="68"/>
+      <c r="W56" s="66"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="68"/>
     </row>
     <row r="57" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P57" s="117"/>
-      <c r="Q57" s="118" t="s">
+      <c r="P57" s="66"/>
+      <c r="Q57" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="R57" s="105" t="s">
+      <c r="R57" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="S57" s="119"/>
-      <c r="W57" s="117"/>
-      <c r="X57" s="118" t="s">
+      <c r="S57" s="68"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="Y57" s="105" t="s">
+      <c r="Y57" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="Z57" s="119"/>
+      <c r="Z57" s="68"/>
     </row>
     <row r="58" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P58" s="117"/>
-      <c r="Q58" s="118"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="119"/>
-      <c r="W58" s="117"/>
-      <c r="X58" s="118"/>
-      <c r="Y58" s="118"/>
-      <c r="Z58" s="119"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="68"/>
+      <c r="W58" s="66"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="68"/>
     </row>
     <row r="59" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P59" s="117"/>
-      <c r="Q59" s="118" t="s">
+      <c r="P59" s="66"/>
+      <c r="Q59" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="R59" s="105">
+      <c r="R59" s="54">
         <v>26</v>
       </c>
-      <c r="S59" s="119"/>
-      <c r="W59" s="117"/>
-      <c r="X59" s="118" t="s">
+      <c r="S59" s="68"/>
+      <c r="W59" s="66"/>
+      <c r="X59" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="Y59" s="105">
+      <c r="Y59" s="54">
         <v>25</v>
       </c>
-      <c r="Z59" s="119"/>
+      <c r="Z59" s="68"/>
     </row>
     <row r="60" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P60" s="117"/>
-      <c r="Q60" s="118"/>
-      <c r="R60" s="118"/>
-      <c r="S60" s="119"/>
-      <c r="W60" s="117"/>
-      <c r="X60" s="118"/>
-      <c r="Y60" s="118"/>
-      <c r="Z60" s="119"/>
-      <c r="AD60" s="40" t="s">
+      <c r="P60" s="66"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="68"/>
+      <c r="W60" s="66"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="68"/>
+      <c r="AD60" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="AE60" s="105" t="s">
+      <c r="AE60" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AF60" s="115"/>
-      <c r="AG60" s="115"/>
-      <c r="AH60" s="116"/>
-      <c r="AK60" s="40" t="s">
+      <c r="AF60" s="64"/>
+      <c r="AG60" s="64"/>
+      <c r="AH60" s="65"/>
+      <c r="AK60" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="AL60" s="105" t="s">
+      <c r="AL60" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AM60" s="115"/>
-      <c r="AN60" s="115"/>
-      <c r="AO60" s="116"/>
-      <c r="AV60" s="40" t="s">
+      <c r="AM60" s="64"/>
+      <c r="AN60" s="64"/>
+      <c r="AO60" s="65"/>
+      <c r="AV60" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="AW60" s="105" t="s">
+      <c r="AW60" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AX60" s="115"/>
-      <c r="AY60" s="115"/>
-      <c r="AZ60" s="116"/>
-      <c r="BC60" s="40" t="s">
+      <c r="AX60" s="64"/>
+      <c r="AY60" s="64"/>
+      <c r="AZ60" s="65"/>
+      <c r="BC60" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="BD60" s="105" t="s">
+      <c r="BD60" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="BE60" s="115"/>
-      <c r="BF60" s="115"/>
-      <c r="BG60" s="116"/>
+      <c r="BE60" s="64"/>
+      <c r="BF60" s="64"/>
+      <c r="BG60" s="65"/>
     </row>
     <row r="61" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="105" t="s">
+      <c r="C61" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="116"/>
-      <c r="I61" s="40" t="s">
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="65"/>
+      <c r="I61" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="J61" s="105" t="s">
+      <c r="J61" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="115"/>
-      <c r="L61" s="115"/>
-      <c r="M61" s="116"/>
-      <c r="P61" s="117"/>
-      <c r="Q61" s="118" t="s">
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="65"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="R61" s="105" t="s">
+      <c r="R61" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="S61" s="119"/>
-      <c r="W61" s="117"/>
-      <c r="X61" s="118" t="s">
+      <c r="S61" s="68"/>
+      <c r="W61" s="66"/>
+      <c r="X61" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="Y61" s="105" t="s">
+      <c r="Y61" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="Z61" s="119"/>
-      <c r="AE61" s="117"/>
-      <c r="AF61" s="118"/>
-      <c r="AG61" s="118"/>
-      <c r="AH61" s="119"/>
-      <c r="AL61" s="117"/>
-      <c r="AM61" s="118"/>
-      <c r="AN61" s="118"/>
-      <c r="AO61" s="119"/>
-      <c r="AW61" s="117"/>
-      <c r="AX61" s="118"/>
-      <c r="AY61" s="118"/>
-      <c r="AZ61" s="119"/>
-      <c r="BD61" s="117"/>
-      <c r="BE61" s="118"/>
-      <c r="BF61" s="118"/>
-      <c r="BG61" s="119"/>
+      <c r="Z61" s="68"/>
+      <c r="AE61" s="66"/>
+      <c r="AF61" s="67"/>
+      <c r="AG61" s="67"/>
+      <c r="AH61" s="68"/>
+      <c r="AL61" s="66"/>
+      <c r="AM61" s="67"/>
+      <c r="AN61" s="67"/>
+      <c r="AO61" s="68"/>
+      <c r="AW61" s="66"/>
+      <c r="AX61" s="67"/>
+      <c r="AY61" s="67"/>
+      <c r="AZ61" s="68"/>
+      <c r="BD61" s="66"/>
+      <c r="BE61" s="67"/>
+      <c r="BF61" s="67"/>
+      <c r="BG61" s="68"/>
     </row>
     <row r="62" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="117"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="119"/>
-      <c r="J62" s="117"/>
-      <c r="K62" s="118"/>
-      <c r="L62" s="118"/>
-      <c r="M62" s="119"/>
-      <c r="P62" s="117"/>
-      <c r="Q62" s="118"/>
-      <c r="R62" s="118"/>
-      <c r="S62" s="119"/>
-      <c r="W62" s="117"/>
-      <c r="X62" s="118"/>
-      <c r="Y62" s="118"/>
-      <c r="Z62" s="119"/>
-      <c r="AE62" s="117"/>
-      <c r="AF62" s="118" t="s">
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="68"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="68"/>
+      <c r="P62" s="66"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="68"/>
+      <c r="W62" s="66"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="68"/>
+      <c r="AE62" s="66"/>
+      <c r="AF62" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AG62" s="105" t="s">
+      <c r="AG62" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AH62" s="119"/>
-      <c r="AL62" s="117"/>
-      <c r="AM62" s="118" t="s">
+      <c r="AH62" s="68"/>
+      <c r="AL62" s="66"/>
+      <c r="AM62" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AN62" s="105" t="s">
+      <c r="AN62" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="AO62" s="119"/>
-      <c r="AW62" s="117"/>
-      <c r="AX62" s="118" t="s">
+      <c r="AO62" s="68"/>
+      <c r="AW62" s="66"/>
+      <c r="AX62" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AY62" s="105" t="s">
+      <c r="AY62" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AZ62" s="119"/>
-      <c r="BD62" s="117"/>
-      <c r="BE62" s="118" t="s">
+      <c r="AZ62" s="68"/>
+      <c r="BD62" s="66"/>
+      <c r="BE62" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="BF62" s="105" t="s">
+      <c r="BF62" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="BG62" s="119"/>
+      <c r="BG62" s="68"/>
     </row>
     <row r="63" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="117"/>
-      <c r="D63" s="118" t="s">
+      <c r="C63" s="66"/>
+      <c r="D63" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="105" t="s">
+      <c r="E63" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="119"/>
-      <c r="J63" s="117"/>
-      <c r="K63" s="118" t="s">
+      <c r="F63" s="68"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="L63" s="105" t="s">
+      <c r="L63" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="M63" s="119"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="118" t="s">
+      <c r="M63" s="68"/>
+      <c r="P63" s="66"/>
+      <c r="Q63" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="R63" s="105" t="s">
+      <c r="R63" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="S63" s="119"/>
-      <c r="W63" s="117"/>
-      <c r="X63" s="118" t="s">
+      <c r="S63" s="68"/>
+      <c r="W63" s="66"/>
+      <c r="X63" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="Y63" s="105" t="s">
+      <c r="Y63" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="Z63" s="119"/>
-      <c r="AE63" s="117"/>
-      <c r="AF63" s="118"/>
-      <c r="AG63" s="118"/>
-      <c r="AH63" s="119"/>
-      <c r="AL63" s="117"/>
-      <c r="AM63" s="118"/>
-      <c r="AN63" s="118"/>
-      <c r="AO63" s="119"/>
-      <c r="AW63" s="117"/>
-      <c r="AX63" s="118"/>
-      <c r="AY63" s="118"/>
-      <c r="AZ63" s="119"/>
-      <c r="BD63" s="117"/>
-      <c r="BE63" s="118"/>
-      <c r="BF63" s="118"/>
-      <c r="BG63" s="119"/>
+      <c r="Z63" s="68"/>
+      <c r="AE63" s="66"/>
+      <c r="AF63" s="67"/>
+      <c r="AG63" s="67"/>
+      <c r="AH63" s="68"/>
+      <c r="AL63" s="66"/>
+      <c r="AM63" s="67"/>
+      <c r="AN63" s="67"/>
+      <c r="AO63" s="68"/>
+      <c r="AW63" s="66"/>
+      <c r="AX63" s="67"/>
+      <c r="AY63" s="67"/>
+      <c r="AZ63" s="68"/>
+      <c r="BD63" s="66"/>
+      <c r="BE63" s="67"/>
+      <c r="BF63" s="67"/>
+      <c r="BG63" s="68"/>
     </row>
     <row r="64" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="117"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="119"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="118"/>
-      <c r="L64" s="118"/>
-      <c r="M64" s="119"/>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="118"/>
-      <c r="R64" s="118"/>
-      <c r="S64" s="119"/>
-      <c r="W64" s="117"/>
-      <c r="X64" s="118"/>
-      <c r="Y64" s="118"/>
-      <c r="Z64" s="119"/>
-      <c r="AE64" s="117"/>
-      <c r="AF64" s="118" t="s">
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="68"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="68"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="68"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="68"/>
+      <c r="AE64" s="66"/>
+      <c r="AF64" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AG64" s="105">
+      <c r="AG64" s="54">
         <v>26</v>
       </c>
-      <c r="AH64" s="119"/>
-      <c r="AL64" s="117"/>
-      <c r="AM64" s="118" t="s">
+      <c r="AH64" s="68"/>
+      <c r="AL64" s="66"/>
+      <c r="AM64" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AN64" s="105">
+      <c r="AN64" s="54">
         <v>25</v>
       </c>
-      <c r="AO64" s="119"/>
-      <c r="AW64" s="117"/>
-      <c r="AX64" s="118" t="s">
+      <c r="AO64" s="68"/>
+      <c r="AW64" s="66"/>
+      <c r="AX64" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AY64" s="105">
+      <c r="AY64" s="54">
         <v>26</v>
       </c>
-      <c r="AZ64" s="119"/>
-      <c r="BD64" s="117"/>
-      <c r="BE64" s="118" t="s">
+      <c r="AZ64" s="68"/>
+      <c r="BD64" s="66"/>
+      <c r="BE64" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="BF64" s="105">
+      <c r="BF64" s="54">
         <v>25</v>
       </c>
-      <c r="BG64" s="119"/>
+      <c r="BG64" s="68"/>
     </row>
     <row r="65" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="117"/>
-      <c r="D65" s="118" t="s">
+      <c r="C65" s="66"/>
+      <c r="D65" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="105">
+      <c r="E65" s="54">
         <v>26</v>
       </c>
-      <c r="F65" s="119"/>
-      <c r="J65" s="117"/>
-      <c r="K65" s="118" t="s">
+      <c r="F65" s="68"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="L65" s="105">
+      <c r="L65" s="54">
         <v>25</v>
       </c>
-      <c r="M65" s="119"/>
-      <c r="P65" s="117"/>
-      <c r="Q65" s="118" t="s">
+      <c r="M65" s="68"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="R65" s="105">
+      <c r="R65" s="54">
         <v>123123123</v>
       </c>
-      <c r="S65" s="119"/>
-      <c r="W65" s="117"/>
-      <c r="X65" s="118" t="s">
+      <c r="S65" s="68"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="Y65" s="105">
+      <c r="Y65" s="54">
         <v>325487584</v>
       </c>
-      <c r="Z65" s="119"/>
-      <c r="AE65" s="117"/>
-      <c r="AF65" s="118"/>
-      <c r="AG65" s="118"/>
-      <c r="AH65" s="119"/>
-      <c r="AL65" s="117"/>
-      <c r="AM65" s="118"/>
-      <c r="AN65" s="118"/>
-      <c r="AO65" s="119"/>
-      <c r="AW65" s="117"/>
-      <c r="AX65" s="118"/>
-      <c r="AY65" s="118"/>
-      <c r="AZ65" s="119"/>
-      <c r="BD65" s="117"/>
-      <c r="BE65" s="118"/>
-      <c r="BF65" s="118"/>
-      <c r="BG65" s="119"/>
+      <c r="Z65" s="68"/>
+      <c r="AE65" s="66"/>
+      <c r="AF65" s="67"/>
+      <c r="AG65" s="67"/>
+      <c r="AH65" s="68"/>
+      <c r="AL65" s="66"/>
+      <c r="AM65" s="67"/>
+      <c r="AN65" s="67"/>
+      <c r="AO65" s="68"/>
+      <c r="AW65" s="66"/>
+      <c r="AX65" s="67"/>
+      <c r="AY65" s="67"/>
+      <c r="AZ65" s="68"/>
+      <c r="BD65" s="66"/>
+      <c r="BE65" s="67"/>
+      <c r="BF65" s="67"/>
+      <c r="BG65" s="68"/>
     </row>
     <row r="66" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="117"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="119"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="118"/>
-      <c r="L66" s="118"/>
-      <c r="M66" s="119"/>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="118"/>
-      <c r="R66" s="118"/>
-      <c r="S66" s="119"/>
-      <c r="W66" s="117"/>
-      <c r="X66" s="118"/>
-      <c r="Y66" s="118"/>
-      <c r="Z66" s="119"/>
-      <c r="AE66" s="117"/>
-      <c r="AF66" s="118" t="s">
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="68"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="68"/>
+      <c r="P66" s="66"/>
+      <c r="Q66" s="67"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="68"/>
+      <c r="W66" s="66"/>
+      <c r="X66" s="67"/>
+      <c r="Y66" s="67"/>
+      <c r="Z66" s="68"/>
+      <c r="AE66" s="66"/>
+      <c r="AF66" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AG66" s="105" t="s">
+      <c r="AG66" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AH66" s="119"/>
-      <c r="AL66" s="117"/>
-      <c r="AM66" s="118" t="s">
+      <c r="AH66" s="68"/>
+      <c r="AL66" s="66"/>
+      <c r="AM66" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AN66" s="105" t="s">
+      <c r="AN66" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AO66" s="119"/>
-      <c r="AW66" s="117"/>
-      <c r="AX66" s="118" t="s">
+      <c r="AO66" s="68"/>
+      <c r="AW66" s="66"/>
+      <c r="AX66" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AY66" s="105" t="s">
+      <c r="AY66" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AZ66" s="119"/>
-      <c r="BD66" s="117"/>
-      <c r="BE66" s="118" t="s">
+      <c r="AZ66" s="68"/>
+      <c r="BD66" s="66"/>
+      <c r="BE66" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="BF66" s="105" t="s">
+      <c r="BF66" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="BG66" s="119"/>
+      <c r="BG66" s="68"/>
     </row>
     <row r="67" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="117"/>
-      <c r="D67" s="118" t="s">
+      <c r="C67" s="66"/>
+      <c r="D67" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="E67" s="105" t="s">
+      <c r="E67" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="119"/>
-      <c r="J67" s="117"/>
-      <c r="K67" s="118" t="s">
+      <c r="F67" s="68"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="L67" s="105" t="s">
+      <c r="L67" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="M67" s="119"/>
-      <c r="P67" s="117"/>
-      <c r="Q67" s="118" t="s">
+      <c r="M67" s="68"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="R67" s="105">
+      <c r="R67" s="54">
         <v>0</v>
       </c>
-      <c r="S67" s="119"/>
-      <c r="W67" s="117"/>
-      <c r="X67" s="118" t="s">
+      <c r="S67" s="68"/>
+      <c r="W67" s="66"/>
+      <c r="X67" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="Y67" s="105">
+      <c r="Y67" s="54">
         <v>0</v>
       </c>
-      <c r="Z67" s="119"/>
-      <c r="AE67" s="117"/>
-      <c r="AF67" s="118"/>
-      <c r="AG67" s="118"/>
-      <c r="AH67" s="119"/>
-      <c r="AL67" s="117"/>
-      <c r="AM67" s="118"/>
-      <c r="AN67" s="118"/>
-      <c r="AO67" s="119"/>
-      <c r="AW67" s="117"/>
-      <c r="AX67" s="118"/>
-      <c r="AY67" s="118"/>
-      <c r="AZ67" s="119"/>
-      <c r="BD67" s="117"/>
-      <c r="BE67" s="118"/>
-      <c r="BF67" s="118"/>
-      <c r="BG67" s="119"/>
+      <c r="Z67" s="68"/>
+      <c r="AE67" s="66"/>
+      <c r="AF67" s="67"/>
+      <c r="AG67" s="67"/>
+      <c r="AH67" s="68"/>
+      <c r="AL67" s="66"/>
+      <c r="AM67" s="67"/>
+      <c r="AN67" s="67"/>
+      <c r="AO67" s="68"/>
+      <c r="AW67" s="66"/>
+      <c r="AX67" s="67"/>
+      <c r="AY67" s="67"/>
+      <c r="AZ67" s="68"/>
+      <c r="BD67" s="66"/>
+      <c r="BE67" s="67"/>
+      <c r="BF67" s="67"/>
+      <c r="BG67" s="68"/>
     </row>
     <row r="68" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="117"/>
-      <c r="D68" s="118"/>
-      <c r="E68" s="118"/>
-      <c r="F68" s="119"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="118"/>
-      <c r="M68" s="119"/>
-      <c r="P68" s="117"/>
-      <c r="Q68" s="118"/>
-      <c r="R68" s="118"/>
-      <c r="S68" s="119"/>
-      <c r="W68" s="117"/>
-      <c r="X68" s="118"/>
-      <c r="Y68" s="118"/>
-      <c r="Z68" s="119"/>
-      <c r="AE68" s="117"/>
-      <c r="AF68" s="118" t="s">
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="68"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="68"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="67"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="68"/>
+      <c r="W68" s="66"/>
+      <c r="X68" s="67"/>
+      <c r="Y68" s="67"/>
+      <c r="Z68" s="68"/>
+      <c r="AE68" s="66"/>
+      <c r="AF68" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AG68" s="105" t="s">
+      <c r="AG68" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AH68" s="119"/>
-      <c r="AL68" s="117"/>
-      <c r="AM68" s="118" t="s">
+      <c r="AH68" s="68"/>
+      <c r="AL68" s="66"/>
+      <c r="AM68" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AN68" s="105" t="s">
+      <c r="AN68" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AO68" s="119"/>
-      <c r="AW68" s="117"/>
-      <c r="AX68" s="118" t="s">
+      <c r="AO68" s="68"/>
+      <c r="AW68" s="66"/>
+      <c r="AX68" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AY68" s="105" t="s">
+      <c r="AY68" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AZ68" s="119"/>
-      <c r="BD68" s="117"/>
-      <c r="BE68" s="118" t="s">
+      <c r="AZ68" s="68"/>
+      <c r="BD68" s="66"/>
+      <c r="BE68" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="BF68" s="105" t="s">
+      <c r="BF68" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="BG68" s="119"/>
+      <c r="BG68" s="68"/>
     </row>
     <row r="69" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="117"/>
-      <c r="D69" s="118" t="s">
+      <c r="C69" s="66"/>
+      <c r="D69" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="E69" s="105" t="s">
+      <c r="E69" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="119"/>
-      <c r="J69" s="117"/>
-      <c r="K69" s="118" t="s">
+      <c r="F69" s="68"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="L69" s="105" t="s">
+      <c r="L69" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="M69" s="119"/>
-      <c r="P69" s="117"/>
-      <c r="Q69" s="118" t="s">
+      <c r="M69" s="68"/>
+      <c r="P69" s="66"/>
+      <c r="Q69" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="R69" s="105" t="s">
+      <c r="R69" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="S69" s="119"/>
-      <c r="W69" s="117"/>
-      <c r="X69" s="118" t="s">
+      <c r="S69" s="68"/>
+      <c r="W69" s="66"/>
+      <c r="X69" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="Y69" s="105" t="s">
+      <c r="Y69" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Z69" s="119"/>
-      <c r="AE69" s="117"/>
-      <c r="AF69" s="118"/>
-      <c r="AG69" s="118"/>
-      <c r="AH69" s="119"/>
-      <c r="AL69" s="117"/>
-      <c r="AM69" s="118"/>
-      <c r="AN69" s="118"/>
-      <c r="AO69" s="119"/>
-      <c r="AW69" s="117"/>
-      <c r="AX69" s="118"/>
-      <c r="AY69" s="118"/>
-      <c r="AZ69" s="119"/>
-      <c r="BD69" s="117"/>
-      <c r="BE69" s="118"/>
-      <c r="BF69" s="118"/>
-      <c r="BG69" s="119"/>
+      <c r="Z69" s="68"/>
+      <c r="AE69" s="66"/>
+      <c r="AF69" s="67"/>
+      <c r="AG69" s="67"/>
+      <c r="AH69" s="68"/>
+      <c r="AL69" s="66"/>
+      <c r="AM69" s="67"/>
+      <c r="AN69" s="67"/>
+      <c r="AO69" s="68"/>
+      <c r="AW69" s="66"/>
+      <c r="AX69" s="67"/>
+      <c r="AY69" s="67"/>
+      <c r="AZ69" s="68"/>
+      <c r="BD69" s="66"/>
+      <c r="BE69" s="67"/>
+      <c r="BF69" s="67"/>
+      <c r="BG69" s="68"/>
     </row>
     <row r="70" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="117"/>
-      <c r="D70" s="118"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="119"/>
-      <c r="J70" s="117"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="118"/>
-      <c r="M70" s="119"/>
-      <c r="P70" s="117"/>
-      <c r="Q70" s="118"/>
-      <c r="R70" s="118"/>
-      <c r="S70" s="119"/>
-      <c r="W70" s="117"/>
-      <c r="X70" s="118"/>
-      <c r="Y70" s="118"/>
-      <c r="Z70" s="119"/>
-      <c r="AE70" s="117"/>
-      <c r="AF70" s="118" t="s">
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="68"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="68"/>
+      <c r="P70" s="66"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="68"/>
+      <c r="W70" s="66"/>
+      <c r="X70" s="67"/>
+      <c r="Y70" s="67"/>
+      <c r="Z70" s="68"/>
+      <c r="AE70" s="66"/>
+      <c r="AF70" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AG70" s="105">
+      <c r="AG70" s="54">
         <v>123123123</v>
       </c>
-      <c r="AH70" s="119"/>
-      <c r="AL70" s="117"/>
-      <c r="AM70" s="118" t="s">
+      <c r="AH70" s="68"/>
+      <c r="AL70" s="66"/>
+      <c r="AM70" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AN70" s="105">
+      <c r="AN70" s="54">
         <v>325487584</v>
       </c>
-      <c r="AO70" s="119"/>
-      <c r="AW70" s="117"/>
-      <c r="AX70" s="118" t="s">
+      <c r="AO70" s="68"/>
+      <c r="AW70" s="66"/>
+      <c r="AX70" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AY70" s="105">
+      <c r="AY70" s="54">
         <v>123123123</v>
       </c>
-      <c r="AZ70" s="119"/>
-      <c r="BD70" s="117"/>
-      <c r="BE70" s="118" t="s">
+      <c r="AZ70" s="68"/>
+      <c r="BD70" s="66"/>
+      <c r="BE70" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="BF70" s="105">
+      <c r="BF70" s="54">
         <v>325487584</v>
       </c>
-      <c r="BG70" s="119"/>
+      <c r="BG70" s="68"/>
     </row>
     <row r="71" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="117"/>
-      <c r="D71" s="118" t="s">
+      <c r="C71" s="66"/>
+      <c r="D71" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="E71" s="105">
+      <c r="E71" s="54">
         <v>123123123</v>
       </c>
-      <c r="F71" s="119"/>
-      <c r="J71" s="117"/>
-      <c r="K71" s="118" t="s">
+      <c r="F71" s="68"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="L71" s="105">
+      <c r="L71" s="54">
         <v>325487584</v>
       </c>
-      <c r="M71" s="119"/>
-      <c r="P71" s="117"/>
-      <c r="Q71" s="118"/>
-      <c r="R71" s="118"/>
-      <c r="S71" s="119"/>
-      <c r="W71" s="117"/>
-      <c r="X71" s="118"/>
-      <c r="Y71" s="118"/>
-      <c r="Z71" s="119"/>
-      <c r="AE71" s="117"/>
-      <c r="AF71" s="118"/>
-      <c r="AG71" s="118"/>
-      <c r="AH71" s="119"/>
-      <c r="AL71" s="117"/>
-      <c r="AM71" s="118"/>
-      <c r="AN71" s="118"/>
-      <c r="AO71" s="119"/>
-      <c r="AW71" s="117"/>
-      <c r="AX71" s="118"/>
-      <c r="AY71" s="118"/>
-      <c r="AZ71" s="119"/>
-      <c r="BD71" s="117"/>
-      <c r="BE71" s="118"/>
-      <c r="BF71" s="118"/>
-      <c r="BG71" s="119"/>
+      <c r="M71" s="68"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="68"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="67"/>
+      <c r="Y71" s="67"/>
+      <c r="Z71" s="68"/>
+      <c r="AE71" s="66"/>
+      <c r="AF71" s="67"/>
+      <c r="AG71" s="67"/>
+      <c r="AH71" s="68"/>
+      <c r="AL71" s="66"/>
+      <c r="AM71" s="67"/>
+      <c r="AN71" s="67"/>
+      <c r="AO71" s="68"/>
+      <c r="AW71" s="66"/>
+      <c r="AX71" s="67"/>
+      <c r="AY71" s="67"/>
+      <c r="AZ71" s="68"/>
+      <c r="BD71" s="66"/>
+      <c r="BE71" s="67"/>
+      <c r="BF71" s="67"/>
+      <c r="BG71" s="68"/>
     </row>
     <row r="72" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="117"/>
-      <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="119"/>
-      <c r="J72" s="117"/>
-      <c r="K72" s="118"/>
-      <c r="L72" s="118"/>
-      <c r="M72" s="119"/>
-      <c r="P72" s="117"/>
-      <c r="Q72" s="118"/>
-      <c r="R72" s="118"/>
-      <c r="S72" s="119"/>
-      <c r="W72" s="117"/>
-      <c r="X72" s="118"/>
-      <c r="Y72" s="118"/>
-      <c r="Z72" s="119"/>
-      <c r="AE72" s="117"/>
-      <c r="AF72" s="118" t="s">
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="68"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="68"/>
+      <c r="P72" s="66"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="68"/>
+      <c r="W72" s="66"/>
+      <c r="X72" s="67"/>
+      <c r="Y72" s="67"/>
+      <c r="Z72" s="68"/>
+      <c r="AE72" s="66"/>
+      <c r="AF72" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AG72" s="105">
+      <c r="AG72" s="54">
         <v>0</v>
       </c>
-      <c r="AH72" s="119"/>
-      <c r="AL72" s="117"/>
-      <c r="AM72" s="118" t="s">
+      <c r="AH72" s="68"/>
+      <c r="AL72" s="66"/>
+      <c r="AM72" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AN72" s="105">
+      <c r="AN72" s="54">
         <v>0</v>
       </c>
-      <c r="AO72" s="119"/>
-      <c r="AW72" s="117"/>
-      <c r="AX72" s="118" t="s">
+      <c r="AO72" s="68"/>
+      <c r="AW72" s="66"/>
+      <c r="AX72" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AY72" s="105">
+      <c r="AY72" s="54">
         <v>0</v>
       </c>
-      <c r="AZ72" s="119"/>
-      <c r="BD72" s="117"/>
-      <c r="BE72" s="118" t="s">
+      <c r="AZ72" s="68"/>
+      <c r="BD72" s="66"/>
+      <c r="BE72" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="BF72" s="105">
+      <c r="BF72" s="54">
         <v>0</v>
       </c>
-      <c r="BG72" s="119"/>
+      <c r="BG72" s="68"/>
     </row>
     <row r="73" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="117"/>
-      <c r="D73" s="118" t="s">
+      <c r="C73" s="66"/>
+      <c r="D73" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="E73" s="105">
+      <c r="E73" s="54">
         <v>0</v>
       </c>
-      <c r="F73" s="119"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="118" t="s">
+      <c r="F73" s="68"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="L73" s="105">
+      <c r="L73" s="54">
         <v>0</v>
       </c>
-      <c r="M73" s="119"/>
-      <c r="P73" s="120"/>
-      <c r="Q73" s="121"/>
-      <c r="R73" s="121"/>
-      <c r="S73" s="122"/>
-      <c r="W73" s="120"/>
-      <c r="X73" s="121"/>
-      <c r="Y73" s="121"/>
-      <c r="Z73" s="122"/>
-      <c r="AE73" s="117"/>
-      <c r="AF73" s="118"/>
-      <c r="AG73" s="118"/>
-      <c r="AH73" s="119"/>
-      <c r="AL73" s="117"/>
-      <c r="AM73" s="118"/>
-      <c r="AN73" s="118"/>
-      <c r="AO73" s="119"/>
-      <c r="AW73" s="117"/>
-      <c r="AX73" s="118"/>
-      <c r="AY73" s="118"/>
-      <c r="AZ73" s="119"/>
-      <c r="BD73" s="117"/>
-      <c r="BE73" s="118"/>
-      <c r="BF73" s="118"/>
-      <c r="BG73" s="119"/>
+      <c r="M73" s="68"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="70"/>
+      <c r="R73" s="70"/>
+      <c r="S73" s="71"/>
+      <c r="W73" s="69"/>
+      <c r="X73" s="70"/>
+      <c r="Y73" s="70"/>
+      <c r="Z73" s="71"/>
+      <c r="AE73" s="66"/>
+      <c r="AF73" s="67"/>
+      <c r="AG73" s="67"/>
+      <c r="AH73" s="68"/>
+      <c r="AL73" s="66"/>
+      <c r="AM73" s="67"/>
+      <c r="AN73" s="67"/>
+      <c r="AO73" s="68"/>
+      <c r="AW73" s="66"/>
+      <c r="AX73" s="67"/>
+      <c r="AY73" s="67"/>
+      <c r="AZ73" s="68"/>
+      <c r="BD73" s="66"/>
+      <c r="BE73" s="67"/>
+      <c r="BF73" s="67"/>
+      <c r="BG73" s="68"/>
     </row>
     <row r="74" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="117"/>
-      <c r="D74" s="118"/>
-      <c r="E74" s="118"/>
-      <c r="F74" s="119"/>
-      <c r="J74" s="117"/>
-      <c r="K74" s="118"/>
-      <c r="L74" s="118"/>
-      <c r="M74" s="119"/>
-      <c r="AE74" s="117"/>
-      <c r="AF74" s="118" t="s">
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="68"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="68"/>
+      <c r="AE74" s="66"/>
+      <c r="AF74" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AG74" s="105" t="s">
+      <c r="AG74" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AH74" s="119"/>
-      <c r="AL74" s="117"/>
-      <c r="AM74" s="118" t="s">
+      <c r="AH74" s="68"/>
+      <c r="AL74" s="66"/>
+      <c r="AM74" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AN74" s="105" t="s">
+      <c r="AN74" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AO74" s="119"/>
-      <c r="AW74" s="117"/>
-      <c r="AX74" s="118" t="s">
+      <c r="AO74" s="68"/>
+      <c r="AW74" s="66"/>
+      <c r="AX74" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AY74" s="105" t="s">
+      <c r="AY74" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AZ74" s="119"/>
-      <c r="BD74" s="117"/>
-      <c r="BE74" s="118" t="s">
+      <c r="AZ74" s="68"/>
+      <c r="BD74" s="66"/>
+      <c r="BE74" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="BF74" s="105" t="s">
+      <c r="BF74" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="BG74" s="119"/>
+      <c r="BG74" s="68"/>
     </row>
     <row r="75" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="117"/>
-      <c r="D75" s="118" t="s">
+      <c r="C75" s="66"/>
+      <c r="D75" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="E75" s="105" t="s">
+      <c r="E75" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="F75" s="119"/>
-      <c r="J75" s="117"/>
-      <c r="K75" s="118" t="s">
+      <c r="F75" s="68"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="L75" s="105" t="s">
+      <c r="L75" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="M75" s="119"/>
-      <c r="AE75" s="117"/>
-      <c r="AF75" s="118"/>
-      <c r="AG75" s="118"/>
-      <c r="AH75" s="119"/>
-      <c r="AL75" s="117"/>
-      <c r="AM75" s="118"/>
-      <c r="AN75" s="118"/>
-      <c r="AO75" s="119"/>
-      <c r="AW75" s="117"/>
-      <c r="AX75" s="118"/>
-      <c r="AY75" s="118"/>
-      <c r="AZ75" s="119"/>
-      <c r="BD75" s="117"/>
-      <c r="BE75" s="118"/>
-      <c r="BF75" s="118"/>
-      <c r="BG75" s="119"/>
+      <c r="M75" s="68"/>
+      <c r="AE75" s="66"/>
+      <c r="AF75" s="67"/>
+      <c r="AG75" s="67"/>
+      <c r="AH75" s="68"/>
+      <c r="AL75" s="66"/>
+      <c r="AM75" s="67"/>
+      <c r="AN75" s="67"/>
+      <c r="AO75" s="68"/>
+      <c r="AW75" s="66"/>
+      <c r="AX75" s="67"/>
+      <c r="AY75" s="67"/>
+      <c r="AZ75" s="68"/>
+      <c r="BD75" s="66"/>
+      <c r="BE75" s="67"/>
+      <c r="BF75" s="67"/>
+      <c r="BG75" s="68"/>
     </row>
     <row r="76" spans="3:59" x14ac:dyDescent="0.25">
-      <c r="C76" s="117"/>
-      <c r="D76" s="118"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="119"/>
-      <c r="J76" s="117"/>
-      <c r="K76" s="118"/>
-      <c r="L76" s="118"/>
-      <c r="M76" s="119"/>
-      <c r="AE76" s="117"/>
-      <c r="AF76" s="118"/>
-      <c r="AG76" s="118"/>
-      <c r="AH76" s="119"/>
-      <c r="AL76" s="117"/>
-      <c r="AM76" s="118"/>
-      <c r="AN76" s="118"/>
-      <c r="AO76" s="119"/>
-      <c r="AW76" s="117"/>
-      <c r="AX76" s="118"/>
-      <c r="AY76" s="118"/>
-      <c r="AZ76" s="119"/>
-      <c r="BD76" s="117"/>
-      <c r="BE76" s="118"/>
-      <c r="BF76" s="118"/>
-      <c r="BG76" s="119"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="68"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="68"/>
+      <c r="AE76" s="66"/>
+      <c r="AF76" s="67"/>
+      <c r="AG76" s="67"/>
+      <c r="AH76" s="68"/>
+      <c r="AL76" s="66"/>
+      <c r="AM76" s="67"/>
+      <c r="AN76" s="67"/>
+      <c r="AO76" s="68"/>
+      <c r="AW76" s="66"/>
+      <c r="AX76" s="67"/>
+      <c r="AY76" s="67"/>
+      <c r="AZ76" s="68"/>
+      <c r="BD76" s="66"/>
+      <c r="BE76" s="67"/>
+      <c r="BF76" s="67"/>
+      <c r="BG76" s="68"/>
     </row>
     <row r="77" spans="3:59" x14ac:dyDescent="0.25">
-      <c r="C77" s="117"/>
-      <c r="D77" s="118"/>
-      <c r="E77" s="118"/>
-      <c r="F77" s="119"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="118"/>
-      <c r="L77" s="118"/>
-      <c r="M77" s="119"/>
-      <c r="AE77" s="117"/>
-      <c r="AF77" s="118"/>
-      <c r="AG77" s="118"/>
-      <c r="AH77" s="119"/>
-      <c r="AL77" s="117"/>
-      <c r="AM77" s="118"/>
-      <c r="AN77" s="118"/>
-      <c r="AO77" s="119"/>
-      <c r="AW77" s="117"/>
-      <c r="AX77" s="118"/>
-      <c r="AY77" s="118"/>
-      <c r="AZ77" s="119"/>
-      <c r="BD77" s="117"/>
-      <c r="BE77" s="118"/>
-      <c r="BF77" s="118"/>
-      <c r="BG77" s="119"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="68"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="68"/>
+      <c r="AE77" s="66"/>
+      <c r="AF77" s="67"/>
+      <c r="AG77" s="67"/>
+      <c r="AH77" s="68"/>
+      <c r="AL77" s="66"/>
+      <c r="AM77" s="67"/>
+      <c r="AN77" s="67"/>
+      <c r="AO77" s="68"/>
+      <c r="AW77" s="66"/>
+      <c r="AX77" s="67"/>
+      <c r="AY77" s="67"/>
+      <c r="AZ77" s="68"/>
+      <c r="BD77" s="66"/>
+      <c r="BE77" s="67"/>
+      <c r="BF77" s="67"/>
+      <c r="BG77" s="68"/>
     </row>
     <row r="78" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="117"/>
-      <c r="D78" s="118"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="119"/>
-      <c r="J78" s="117"/>
-      <c r="K78" s="118"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="119"/>
-      <c r="AE78" s="120"/>
-      <c r="AF78" s="121"/>
-      <c r="AG78" s="121"/>
-      <c r="AH78" s="122"/>
-      <c r="AL78" s="120"/>
-      <c r="AM78" s="121"/>
-      <c r="AN78" s="121"/>
-      <c r="AO78" s="122"/>
-      <c r="AW78" s="120"/>
-      <c r="AX78" s="121"/>
-      <c r="AY78" s="121"/>
-      <c r="AZ78" s="122"/>
-      <c r="BD78" s="120"/>
-      <c r="BE78" s="121"/>
-      <c r="BF78" s="121"/>
-      <c r="BG78" s="122"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="68"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="67"/>
+      <c r="M78" s="68"/>
+      <c r="AE78" s="69"/>
+      <c r="AF78" s="70"/>
+      <c r="AG78" s="70"/>
+      <c r="AH78" s="71"/>
+      <c r="AL78" s="69"/>
+      <c r="AM78" s="70"/>
+      <c r="AN78" s="70"/>
+      <c r="AO78" s="71"/>
+      <c r="AW78" s="69"/>
+      <c r="AX78" s="70"/>
+      <c r="AY78" s="70"/>
+      <c r="AZ78" s="71"/>
+      <c r="BD78" s="69"/>
+      <c r="BE78" s="70"/>
+      <c r="BF78" s="70"/>
+      <c r="BG78" s="71"/>
     </row>
     <row r="79" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="120"/>
-      <c r="D79" s="121"/>
-      <c r="E79" s="121"/>
-      <c r="F79" s="122"/>
-      <c r="J79" s="120"/>
-      <c r="K79" s="121"/>
-      <c r="L79" s="121"/>
-      <c r="M79" s="122"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="71"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="70"/>
+      <c r="M79" s="71"/>
     </row>
     <row r="87" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AP88" s="40" t="s">
+      <c r="AP88" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="AQ88" s="105" t="s">
+      <c r="AQ88" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AR88" s="115"/>
-      <c r="AS88" s="115"/>
-      <c r="AT88" s="116"/>
-      <c r="AW88" s="40" t="s">
+      <c r="AR88" s="64"/>
+      <c r="AS88" s="64"/>
+      <c r="AT88" s="65"/>
+      <c r="AW88" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="AX88" s="105" t="s">
+      <c r="AX88" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AY88" s="115"/>
-      <c r="AZ88" s="115"/>
-      <c r="BA88" s="116"/>
+      <c r="AY88" s="64"/>
+      <c r="AZ88" s="64"/>
+      <c r="BA88" s="65"/>
     </row>
     <row r="89" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ89" s="117"/>
-      <c r="AR89" s="118"/>
-      <c r="AS89" s="118"/>
-      <c r="AT89" s="119"/>
-      <c r="AX89" s="117"/>
-      <c r="AY89" s="118"/>
-      <c r="AZ89" s="118"/>
-      <c r="BA89" s="119"/>
+      <c r="AQ89" s="66"/>
+      <c r="AR89" s="67"/>
+      <c r="AS89" s="67"/>
+      <c r="AT89" s="68"/>
+      <c r="AX89" s="66"/>
+      <c r="AY89" s="67"/>
+      <c r="AZ89" s="67"/>
+      <c r="BA89" s="68"/>
     </row>
     <row r="90" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ90" s="117"/>
-      <c r="AR90" s="118" t="s">
+      <c r="AQ90" s="66"/>
+      <c r="AR90" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AS90" s="105" t="s">
+      <c r="AS90" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AT90" s="119"/>
-      <c r="AX90" s="117"/>
-      <c r="AY90" s="118" t="s">
+      <c r="AT90" s="68"/>
+      <c r="AX90" s="66"/>
+      <c r="AY90" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="AZ90" s="105" t="s">
+      <c r="AZ90" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="BA90" s="119"/>
+      <c r="BA90" s="68"/>
     </row>
     <row r="91" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ91" s="117"/>
-      <c r="AR91" s="118"/>
-      <c r="AS91" s="118"/>
-      <c r="AT91" s="119"/>
-      <c r="AX91" s="117"/>
-      <c r="AY91" s="118"/>
-      <c r="AZ91" s="118"/>
-      <c r="BA91" s="119"/>
+      <c r="AQ91" s="66"/>
+      <c r="AR91" s="67"/>
+      <c r="AS91" s="67"/>
+      <c r="AT91" s="68"/>
+      <c r="AX91" s="66"/>
+      <c r="AY91" s="67"/>
+      <c r="AZ91" s="67"/>
+      <c r="BA91" s="68"/>
     </row>
     <row r="92" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ92" s="117"/>
-      <c r="AR92" s="118" t="s">
+      <c r="AQ92" s="66"/>
+      <c r="AR92" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AS92" s="105">
+      <c r="AS92" s="54">
         <v>26</v>
       </c>
-      <c r="AT92" s="119"/>
-      <c r="AX92" s="117"/>
-      <c r="AY92" s="118" t="s">
+      <c r="AT92" s="68"/>
+      <c r="AX92" s="66"/>
+      <c r="AY92" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AZ92" s="105">
+      <c r="AZ92" s="54">
         <v>25</v>
       </c>
-      <c r="BA92" s="119"/>
+      <c r="BA92" s="68"/>
     </row>
     <row r="93" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ93" s="117"/>
-      <c r="AR93" s="118"/>
-      <c r="AS93" s="118"/>
-      <c r="AT93" s="119"/>
-      <c r="AX93" s="117"/>
-      <c r="AY93" s="118"/>
-      <c r="AZ93" s="118"/>
-      <c r="BA93" s="119"/>
+      <c r="AQ93" s="66"/>
+      <c r="AR93" s="67"/>
+      <c r="AS93" s="67"/>
+      <c r="AT93" s="68"/>
+      <c r="AX93" s="66"/>
+      <c r="AY93" s="67"/>
+      <c r="AZ93" s="67"/>
+      <c r="BA93" s="68"/>
     </row>
     <row r="94" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ94" s="117"/>
-      <c r="AR94" s="118" t="s">
+      <c r="AQ94" s="66"/>
+      <c r="AR94" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AS94" s="105" t="s">
+      <c r="AS94" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AT94" s="119"/>
-      <c r="AX94" s="117"/>
-      <c r="AY94" s="118" t="s">
+      <c r="AT94" s="68"/>
+      <c r="AX94" s="66"/>
+      <c r="AY94" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AZ94" s="105" t="s">
+      <c r="AZ94" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="BA94" s="119"/>
+      <c r="BA94" s="68"/>
     </row>
     <row r="95" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ95" s="117"/>
-      <c r="AR95" s="118"/>
-      <c r="AS95" s="118"/>
-      <c r="AT95" s="119"/>
-      <c r="AX95" s="117"/>
-      <c r="AY95" s="118"/>
-      <c r="AZ95" s="118"/>
-      <c r="BA95" s="119"/>
+      <c r="AQ95" s="66"/>
+      <c r="AR95" s="67"/>
+      <c r="AS95" s="67"/>
+      <c r="AT95" s="68"/>
+      <c r="AX95" s="66"/>
+      <c r="AY95" s="67"/>
+      <c r="AZ95" s="67"/>
+      <c r="BA95" s="68"/>
     </row>
     <row r="96" spans="42:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ96" s="117"/>
-      <c r="AR96" s="118" t="s">
+      <c r="AQ96" s="66"/>
+      <c r="AR96" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AS96" s="105" t="s">
+      <c r="AS96" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AT96" s="119"/>
-      <c r="AX96" s="117"/>
-      <c r="AY96" s="118" t="s">
+      <c r="AT96" s="68"/>
+      <c r="AX96" s="66"/>
+      <c r="AY96" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AZ96" s="105" t="s">
+      <c r="AZ96" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="BA96" s="119"/>
+      <c r="BA96" s="68"/>
     </row>
     <row r="97" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ97" s="117"/>
-      <c r="AR97" s="118"/>
-      <c r="AS97" s="118"/>
-      <c r="AT97" s="119"/>
-      <c r="AX97" s="117"/>
-      <c r="AY97" s="118"/>
-      <c r="AZ97" s="118"/>
-      <c r="BA97" s="119"/>
+      <c r="AQ97" s="66"/>
+      <c r="AR97" s="67"/>
+      <c r="AS97" s="67"/>
+      <c r="AT97" s="68"/>
+      <c r="AX97" s="66"/>
+      <c r="AY97" s="67"/>
+      <c r="AZ97" s="67"/>
+      <c r="BA97" s="68"/>
     </row>
     <row r="98" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ98" s="117"/>
-      <c r="AR98" s="118" t="s">
+      <c r="AQ98" s="66"/>
+      <c r="AR98" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AS98" s="105">
+      <c r="AS98" s="54">
         <v>123123123</v>
       </c>
-      <c r="AT98" s="119"/>
-      <c r="AX98" s="117"/>
-      <c r="AY98" s="118" t="s">
+      <c r="AT98" s="68"/>
+      <c r="AX98" s="66"/>
+      <c r="AY98" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AZ98" s="105">
+      <c r="AZ98" s="54">
         <v>325487584</v>
       </c>
-      <c r="BA98" s="119"/>
+      <c r="BA98" s="68"/>
     </row>
     <row r="99" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ99" s="117"/>
-      <c r="AR99" s="118"/>
-      <c r="AS99" s="118"/>
-      <c r="AT99" s="119"/>
-      <c r="AX99" s="117"/>
-      <c r="AY99" s="118"/>
-      <c r="AZ99" s="118"/>
-      <c r="BA99" s="119"/>
+      <c r="AQ99" s="66"/>
+      <c r="AR99" s="67"/>
+      <c r="AS99" s="67"/>
+      <c r="AT99" s="68"/>
+      <c r="AX99" s="66"/>
+      <c r="AY99" s="67"/>
+      <c r="AZ99" s="67"/>
+      <c r="BA99" s="68"/>
     </row>
     <row r="100" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ100" s="117"/>
-      <c r="AR100" s="118" t="s">
+      <c r="AQ100" s="66"/>
+      <c r="AR100" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AS100" s="105">
+      <c r="AS100" s="54">
         <v>0</v>
       </c>
-      <c r="AT100" s="119"/>
-      <c r="AX100" s="117"/>
-      <c r="AY100" s="118" t="s">
+      <c r="AT100" s="68"/>
+      <c r="AX100" s="66"/>
+      <c r="AY100" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AZ100" s="105">
+      <c r="AZ100" s="54">
         <v>0</v>
       </c>
-      <c r="BA100" s="119"/>
+      <c r="BA100" s="68"/>
     </row>
     <row r="101" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ101" s="117"/>
-      <c r="AR101" s="118"/>
-      <c r="AS101" s="118"/>
-      <c r="AT101" s="119"/>
-      <c r="AX101" s="117"/>
-      <c r="AY101" s="118"/>
-      <c r="AZ101" s="118"/>
-      <c r="BA101" s="119"/>
+      <c r="AQ101" s="66"/>
+      <c r="AR101" s="67"/>
+      <c r="AS101" s="67"/>
+      <c r="AT101" s="68"/>
+      <c r="AX101" s="66"/>
+      <c r="AY101" s="67"/>
+      <c r="AZ101" s="67"/>
+      <c r="BA101" s="68"/>
     </row>
     <row r="102" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ102" s="117"/>
-      <c r="AR102" s="118" t="s">
+      <c r="AQ102" s="66"/>
+      <c r="AR102" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AS102" s="105" t="s">
+      <c r="AS102" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AT102" s="119"/>
-      <c r="AX102" s="117"/>
-      <c r="AY102" s="118" t="s">
+      <c r="AT102" s="68"/>
+      <c r="AX102" s="66"/>
+      <c r="AY102" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AZ102" s="105" t="s">
+      <c r="AZ102" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="BA102" s="119"/>
+      <c r="BA102" s="68"/>
     </row>
     <row r="103" spans="43:53" x14ac:dyDescent="0.25">
-      <c r="AQ103" s="117"/>
-      <c r="AR103" s="118"/>
-      <c r="AS103" s="118"/>
-      <c r="AT103" s="119"/>
-      <c r="AX103" s="117"/>
-      <c r="AY103" s="118"/>
-      <c r="AZ103" s="118"/>
-      <c r="BA103" s="119"/>
+      <c r="AQ103" s="66"/>
+      <c r="AR103" s="67"/>
+      <c r="AS103" s="67"/>
+      <c r="AT103" s="68"/>
+      <c r="AX103" s="66"/>
+      <c r="AY103" s="67"/>
+      <c r="AZ103" s="67"/>
+      <c r="BA103" s="68"/>
     </row>
     <row r="104" spans="43:53" x14ac:dyDescent="0.25">
-      <c r="AQ104" s="117"/>
-      <c r="AR104" s="118"/>
-      <c r="AS104" s="118"/>
-      <c r="AT104" s="119"/>
-      <c r="AX104" s="117"/>
-      <c r="AY104" s="118"/>
-      <c r="AZ104" s="118"/>
-      <c r="BA104" s="119"/>
+      <c r="AQ104" s="66"/>
+      <c r="AR104" s="67"/>
+      <c r="AS104" s="67"/>
+      <c r="AT104" s="68"/>
+      <c r="AX104" s="66"/>
+      <c r="AY104" s="67"/>
+      <c r="AZ104" s="67"/>
+      <c r="BA104" s="68"/>
     </row>
     <row r="105" spans="43:53" x14ac:dyDescent="0.25">
-      <c r="AQ105" s="117"/>
-      <c r="AR105" s="118"/>
-      <c r="AS105" s="118"/>
-      <c r="AT105" s="119"/>
-      <c r="AX105" s="117"/>
-      <c r="AY105" s="118"/>
-      <c r="AZ105" s="118"/>
-      <c r="BA105" s="119"/>
+      <c r="AQ105" s="66"/>
+      <c r="AR105" s="67"/>
+      <c r="AS105" s="67"/>
+      <c r="AT105" s="68"/>
+      <c r="AX105" s="66"/>
+      <c r="AY105" s="67"/>
+      <c r="AZ105" s="67"/>
+      <c r="BA105" s="68"/>
     </row>
     <row r="106" spans="43:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ106" s="120"/>
-      <c r="AR106" s="121"/>
-      <c r="AS106" s="121"/>
-      <c r="AT106" s="122"/>
-      <c r="AX106" s="120"/>
-      <c r="AY106" s="121"/>
-      <c r="AZ106" s="121"/>
-      <c r="BA106" s="122"/>
+      <c r="AQ106" s="69"/>
+      <c r="AR106" s="70"/>
+      <c r="AS106" s="70"/>
+      <c r="AT106" s="71"/>
+      <c r="AX106" s="69"/>
+      <c r="AY106" s="70"/>
+      <c r="AZ106" s="70"/>
+      <c r="BA106" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
